--- a/ratsiony.xlsx
+++ b/ratsiony.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="165" yWindow="-135" windowWidth="18540" windowHeight="6690" activeTab="7"/>
@@ -239,11 +239,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,7 +515,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -550,7 +549,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -726,14 +724,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="S2" sqref="S2:T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -741,7 +739,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -770,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.75">
       <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
@@ -783,7 +781,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -815,12 +813,8 @@
         <f t="shared" ref="I3:I18" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>231.99</v>
       </c>
-      <c r="S3">
-        <f>E3*3</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -852,12 +846,8 @@
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="S4">
-        <f t="shared" ref="S4:S18" si="3">E4*3</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" ht="18.75">
       <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
@@ -869,12 +859,8 @@
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
-      <c r="S5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -895,23 +881,19 @@
         <v>24</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ref="G6:H6" si="4">C6*$E$6/100</f>
+        <f t="shared" ref="G6:H6" si="3">C6*$E$6/100</f>
         <v>52</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="1"/>
         <v>317.5</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -932,23 +914,19 @@
         <v>18</v>
       </c>
       <c r="G7" s="17">
-        <f t="shared" ref="G7:H7" si="5">C7*$E$7/100</f>
+        <f t="shared" ref="G7:H7" si="4">C7*$E$7/100</f>
         <v>1.5</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="I7" s="25">
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" ht="18.75">
       <c r="A8" s="35" t="s">
         <v>22</v>
       </c>
@@ -960,12 +938,8 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="S8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -994,15 +968,11 @@
         <v>5.4</v>
       </c>
       <c r="I9" s="16">
-        <f t="shared" ref="I9:I13" si="6">(B9*4+C9*4+D9*9)*E9/100</f>
+        <f t="shared" ref="I9:I13" si="5">(B9*4+C9*4+D9*9)*E9/100</f>
         <v>67.8</v>
       </c>
-      <c r="S9">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1031,15 +1001,11 @@
         <v>0.52</v>
       </c>
       <c r="I10" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>79.239999999999981</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1068,15 +1034,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1105,15 +1067,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>186</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1142,15 +1100,11 @@
         <v>6.3</v>
       </c>
       <c r="I13" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>128.69999999999999</v>
       </c>
-      <c r="S13">
-        <f t="shared" si="3"/>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
@@ -1162,12 +1116,8 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="S14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1188,23 +1138,19 @@
         <v>1.4</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" ref="G15:H15" si="7">C15*$E$15/100</f>
+        <f t="shared" ref="G15:H15" si="6">C15*$E$15/100</f>
         <v>114.8</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="1"/>
         <v>464.8</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="3"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" ht="18.75">
       <c r="A16" s="35" t="s">
         <v>19</v>
       </c>
@@ -1216,12 +1162,8 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="S16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1242,23 +1184,19 @@
         <v>13</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" ref="G17:H17" si="8">C17*$E$17/100</f>
+        <f t="shared" ref="G17:H17" si="7">C17*$E$17/100</f>
         <v>89.375</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.375</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1279,23 +1217,19 @@
         <v>12</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" ref="G18:H18" si="9">C18*$E$18/100</f>
+        <f t="shared" ref="G18:H18" si="8">C18*$E$18/100</f>
         <v>1</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" ht="18.75">
       <c r="A19" s="35" t="s">
         <v>20</v>
       </c>
@@ -1308,7 +1242,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1329,19 +1263,19 @@
         <v>30.5</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" ref="G20:H20" si="10">C20*$E$20/100</f>
+        <f t="shared" ref="G20:H20" si="9">C20*$E$20/100</f>
         <v>111</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20" si="11">(B20*4+C20*4+D20*9)*E20/100</f>
+        <f t="shared" ref="I20" si="10">(B20*4+C20*4+D20*9)*E20/100</f>
         <v>781.99999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="34" t="s">
         <v>21</v>
       </c>
@@ -1366,7 +1300,7 @@
         <v>3430.9049999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -1391,7 +1325,7 @@
         <v>3430.9049999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1404,16 +1338,16 @@
         <v>15.264777077768112</v>
       </c>
       <c r="G23" s="15">
-        <f t="shared" ref="G23:H23" si="12">G22/($F$22+$G$22+$H$22)*100</f>
+        <f t="shared" ref="G23:H23" si="11">G22/($F$22+$G$22+$H$22)*100</f>
         <v>60.474422929227124</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>24.260799993004763</v>
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
@@ -1422,15 +1356,15 @@
         <v>2.0457812500000001</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" ref="G24:H24" si="13">G21/$A$1</f>
+        <f t="shared" ref="G24:H24" si="12">G21/$A$1</f>
         <v>8.1047656249999989</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.445078125</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1454,14 +1388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="R3" sqref="R3:T24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -1469,7 +1403,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -1498,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.75">
       <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
@@ -1511,7 +1445,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -1543,12 +1477,8 @@
         <f t="shared" ref="I3:I18" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>231.99</v>
       </c>
-      <c r="S3">
-        <f>E3*3</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -1580,12 +1510,8 @@
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="S4">
-        <f t="shared" ref="S4:S20" si="3">E4*3</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" ht="18.75">
       <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
@@ -1597,12 +1523,8 @@
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
-      <c r="S5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1623,23 +1545,19 @@
         <v>12.5</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ref="G6:H6" si="4">C6*$E$6/100</f>
+        <f t="shared" ref="G6:H6" si="3">C6*$E$6/100</f>
         <v>88.75</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.875</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -1660,23 +1578,19 @@
         <v>12</v>
       </c>
       <c r="G7" s="17">
-        <f t="shared" ref="G7:H7" si="5">C7*$E$7/100</f>
+        <f t="shared" ref="G7:H7" si="4">C7*$E$7/100</f>
         <v>0.1</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="I7" s="25">
         <f t="shared" si="1"/>
         <v>192.4</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" ht="18.75">
       <c r="A8" s="35" t="s">
         <v>22</v>
       </c>
@@ -1688,12 +1602,8 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="S8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1722,15 +1632,11 @@
         <v>5.4</v>
       </c>
       <c r="I9" s="25">
-        <f t="shared" ref="I9:I13" si="6">(B9*4+C9*4+D9*9)*E9/100</f>
+        <f t="shared" ref="I9:I13" si="5">(B9*4+C9*4+D9*9)*E9/100</f>
         <v>67.8</v>
       </c>
-      <c r="S9">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1759,15 +1665,11 @@
         <v>0.52</v>
       </c>
       <c r="I10" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>79.239999999999981</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1796,15 +1698,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1833,15 +1731,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>186</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1870,15 +1764,11 @@
         <v>6.3</v>
       </c>
       <c r="I13" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>128.69999999999999</v>
       </c>
-      <c r="S13">
-        <f t="shared" si="3"/>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
@@ -1890,12 +1780,8 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="S14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1916,23 +1802,19 @@
         <v>1.35</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" ref="G15:H15" si="7">C15*$E$15/100</f>
+        <f t="shared" ref="G15:H15" si="6">C15*$E$15/100</f>
         <v>109.35</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="1"/>
         <v>442.8</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="3"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" ht="18.75">
       <c r="A16" s="35" t="s">
         <v>19</v>
       </c>
@@ -1944,12 +1826,8 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="S16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -1970,23 +1848,19 @@
         <v>7.7</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" ref="G17:H17" si="8">C17*$E$17/100</f>
+        <f t="shared" ref="G17:H17" si="7">C17*$E$17/100</f>
         <v>84.7</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="1"/>
         <v>369.6</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="3"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>68</v>
       </c>
@@ -2007,23 +1881,19 @@
         <v>18</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" ref="G18:H18" si="9">C18*$E$18/100</f>
+        <f t="shared" ref="G18:H18" si="8">C18*$E$18/100</f>
         <v>0.15</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="1"/>
         <v>288.60000000000002</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" ht="18.75">
       <c r="A19" s="35" t="s">
         <v>20</v>
       </c>
@@ -2035,12 +1905,8 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="S19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -2061,23 +1927,19 @@
         <v>30.5</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" ref="G20:H20" si="10">C20*$E$20/100</f>
+        <f t="shared" ref="G20:H20" si="9">C20*$E$20/100</f>
         <v>111</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20" si="11">(B20*4+C20*4+D20*9)*E20/100</f>
+        <f t="shared" ref="I20" si="10">(B20*4+C20*4+D20*9)*E20/100</f>
         <v>781.99999999999989</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="34" t="s">
         <v>21</v>
       </c>
@@ -2102,7 +1964,7 @@
         <v>3452.0050000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -2115,7 +1977,7 @@
         <v>456.32</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" ref="G22" si="12">G21*4</f>
+        <f t="shared" ref="G22" si="11">G21*4</f>
         <v>2172.3199999999997</v>
       </c>
       <c r="H22" s="15">
@@ -2127,7 +1989,7 @@
         <v>3452.0050000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2140,16 +2002,16 @@
         <v>13.218984329396974</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" ref="G23:H23" si="13">G22/($F$22+$G$22+$H$22)*100</f>
+        <f t="shared" ref="G23:H23" si="12">G22/($F$22+$G$22+$H$22)*100</f>
         <v>62.929225189418894</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>23.851790481184125</v>
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
@@ -2158,15 +2020,15 @@
         <v>1.7825</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" ref="G24:H24" si="14">G21/$A$1</f>
+        <f t="shared" ref="G24:H24" si="13">G21/$A$1</f>
         <v>8.4856249999999989</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.429453125</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2190,14 +2052,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="R2" sqref="R2:S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -2205,7 +2067,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -2234,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.75">
       <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
@@ -2247,7 +2109,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -2279,12 +2141,8 @@
         <f t="shared" ref="I3:I18" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>231.99</v>
       </c>
-      <c r="S3">
-        <f>E3*3</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -2316,12 +2174,8 @@
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="S4">
-        <f t="shared" ref="S4:S18" si="3">E4*3</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" ht="18.75">
       <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
@@ -2333,12 +2187,8 @@
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
-      <c r="S5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2359,23 +2209,19 @@
         <v>7</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" ref="G6:H6" si="4">C6*$E$6/100</f>
+        <f t="shared" ref="G6:H6" si="3">C6*$E$6/100</f>
         <v>77</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="1"/>
         <v>336</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -2396,23 +2242,19 @@
         <v>18</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" ref="G7:H7" si="5">C7*$E$7/100</f>
+        <f t="shared" ref="G7:H7" si="4">C7*$E$7/100</f>
         <v>0.15</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" si="1"/>
         <v>288.60000000000002</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" ht="18.75">
       <c r="A8" s="35" t="s">
         <v>22</v>
       </c>
@@ -2424,12 +2266,8 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="S8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2458,15 +2296,11 @@
         <v>5.4</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" ref="I9:I13" si="6">(B9*4+C9*4+D9*9)*E9/100</f>
+        <f t="shared" ref="I9:I13" si="5">(B9*4+C9*4+D9*9)*E9/100</f>
         <v>67.8</v>
       </c>
-      <c r="S9">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2495,15 +2329,11 @@
         <v>0.52</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>79.239999999999981</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -2532,15 +2362,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -2569,15 +2395,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>186</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2606,15 +2428,11 @@
         <v>6.3</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>128.69999999999999</v>
       </c>
-      <c r="S13">
-        <f t="shared" si="3"/>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
@@ -2626,12 +2444,8 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="S14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -2652,23 +2466,19 @@
         <v>1.4</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" ref="G15:H15" si="7">C15*$E$15/100</f>
+        <f t="shared" ref="G15:H15" si="6">C15*$E$15/100</f>
         <v>114.8</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="1"/>
         <v>464.8</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="3"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" ht="18.75">
       <c r="A16" s="35" t="s">
         <v>19</v>
       </c>
@@ -2680,12 +2490,8 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="S16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -2706,23 +2512,19 @@
         <v>13</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" ref="G17:H17" si="8">C17*$E$17/100</f>
+        <f t="shared" ref="G17:H17" si="7">C17*$E$17/100</f>
         <v>89.375</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.375</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -2743,23 +2545,19 @@
         <v>29.25</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" ref="G18:H18" si="9">C18*$E$18/100</f>
+        <f t="shared" ref="G18:H18" si="8">C18*$E$18/100</f>
         <v>0.15</v>
       </c>
       <c r="H18" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="1"/>
         <v>171.6</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" ht="18.75">
       <c r="A19" s="35" t="s">
         <v>20</v>
       </c>
@@ -2772,7 +2570,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -2793,19 +2591,19 @@
         <v>30.5</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" ref="G20:H20" si="10">C20*$E$20/100</f>
+        <f t="shared" ref="G20:H20" si="9">C20*$E$20/100</f>
         <v>111</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20" si="11">(B20*4+C20*4+D20*9)*E20/100</f>
+        <f t="shared" ref="I20" si="10">(B20*4+C20*4+D20*9)*E20/100</f>
         <v>781.99999999999989</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="34" t="s">
         <v>21</v>
       </c>
@@ -2830,7 +2628,7 @@
         <v>3419.605</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -2855,7 +2653,7 @@
         <v>3419.6049999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2868,16 +2666,16 @@
         <v>15.344462299008221</v>
       </c>
       <c r="G23" s="15">
-        <f t="shared" ref="G23:H23" si="12">G22/($F$22+$G$22+$H$22)*100</f>
+        <f t="shared" ref="G23:H23" si="11">G22/($F$22+$G$22+$H$22)*100</f>
         <v>63.341233855957057</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>21.314303845034736</v>
       </c>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
@@ -2886,15 +2684,15 @@
         <v>2.0496875000000001</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" ref="G24:H24" si="13">G21/$A$1</f>
+        <f t="shared" ref="G24:H24" si="12">G21/$A$1</f>
         <v>8.4610156249999999</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.265390625</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2918,14 +2716,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="R2" sqref="R2:T22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -2933,7 +2731,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -2962,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.75">
       <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
@@ -2975,7 +2773,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -3007,12 +2805,8 @@
         <f t="shared" ref="I3:I18" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>231.99</v>
       </c>
-      <c r="S3">
-        <f>E3*3</f>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -3044,12 +2838,8 @@
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="S4">
-        <f t="shared" ref="S4:S20" si="3">E4*3</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" ht="18.75">
       <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
@@ -3061,12 +2851,8 @@
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
-      <c r="S5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -3087,23 +2873,19 @@
         <v>12.5</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ref="G6:H6" si="4">C6*$E$6/100</f>
+        <f t="shared" ref="G6:H6" si="3">C6*$E$6/100</f>
         <v>88.75</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.875</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -3124,23 +2906,19 @@
         <v>29.25</v>
       </c>
       <c r="G7" s="17">
-        <f t="shared" ref="G7:H7" si="5">C7*$E$7/100</f>
+        <f t="shared" ref="G7:H7" si="4">C7*$E$7/100</f>
         <v>0.15</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="I7" s="25">
         <f t="shared" si="1"/>
         <v>171.6</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" ht="18.75">
       <c r="A8" s="35" t="s">
         <v>22</v>
       </c>
@@ -3152,12 +2930,8 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-      <c r="S8">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -3186,15 +2960,11 @@
         <v>5.4</v>
       </c>
       <c r="I9" s="25">
-        <f t="shared" ref="I9:I13" si="6">(B9*4+C9*4+D9*9)*E9/100</f>
+        <f t="shared" ref="I9:I13" si="5">(B9*4+C9*4+D9*9)*E9/100</f>
         <v>67.8</v>
       </c>
-      <c r="S9">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -3223,15 +2993,11 @@
         <v>0.52</v>
       </c>
       <c r="I10" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>79.239999999999981</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -3260,15 +3026,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -3297,15 +3059,11 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>186</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -3334,15 +3092,11 @@
         <v>6.3</v>
       </c>
       <c r="I13" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>128.69999999999999</v>
       </c>
-      <c r="S13">
-        <f t="shared" si="3"/>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
@@ -3354,12 +3108,8 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-      <c r="S14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -3380,23 +3130,19 @@
         <v>1.35</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" ref="G15:H15" si="7">C15*$E$15/100</f>
+        <f t="shared" ref="G15:H15" si="6">C15*$E$15/100</f>
         <v>109.35</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="1"/>
         <v>442.8</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="3"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" ht="18.75">
       <c r="A16" s="35" t="s">
         <v>19</v>
       </c>
@@ -3408,12 +3154,8 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="S16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3434,23 +3176,19 @@
         <v>7.7</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" ref="G17:H17" si="8">C17*$E$17/100</f>
+        <f t="shared" ref="G17:H17" si="7">C17*$E$17/100</f>
         <v>84.7</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="1"/>
         <v>369.6</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="3"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -3471,23 +3209,19 @@
         <v>17.875</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" ref="G18:H18" si="9">C18*$E$18/100</f>
+        <f t="shared" ref="G18:H18" si="8">C18*$E$18/100</f>
         <v>0.125</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>13.75</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="1"/>
         <v>195.75</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" ht="18.75">
       <c r="A19" s="35" t="s">
         <v>20</v>
       </c>
@@ -3499,12 +3233,8 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="S19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -3525,23 +3255,19 @@
         <v>30.5</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" ref="G20:H20" si="10">C20*$E$20/100</f>
+        <f t="shared" ref="G20:H20" si="9">C20*$E$20/100</f>
         <v>111</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20" si="11">(B20*4+C20*4+D20*9)*E20/100</f>
+        <f t="shared" ref="I20" si="10">(B20*4+C20*4+D20*9)*E20/100</f>
         <v>781.99999999999989</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="34" t="s">
         <v>21</v>
       </c>
@@ -3566,7 +3292,7 @@
         <v>3338.355</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -3579,7 +3305,7 @@
         <v>524.81999999999994</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" ref="G22" si="12">G21*4</f>
+        <f t="shared" ref="G22" si="11">G21*4</f>
         <v>2172.42</v>
       </c>
       <c r="H22" s="15">
@@ -3591,7 +3317,7 @@
         <v>3338.3549999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3604,16 +3330,16 @@
         <v>15.720916439384066</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" ref="G23:H23" si="13">G22/($F$22+$G$22+$H$22)*100</f>
+        <f t="shared" ref="G23:H23" si="12">G22/($F$22+$G$22+$H$22)*100</f>
         <v>65.074565167575059</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>19.204518393040885</v>
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
@@ -3622,15 +3348,15 @@
         <v>2.0500781249999998</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" ref="G24:H24" si="14">G21/$A$1</f>
+        <f t="shared" ref="G24:H24" si="13">G21/$A$1</f>
         <v>8.4860156250000003</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1.113046875</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3654,14 +3380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -3669,7 +3395,7 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -3698,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.75">
       <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
@@ -3711,7 +3437,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -3744,7 +3470,7 @@
         <v>231.99</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -3777,7 +3503,7 @@
         <v>133.25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="18.75">
       <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
@@ -3790,7 +3516,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>59</v>
       </c>
@@ -3823,7 +3549,7 @@
         <v>379.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>60</v>
       </c>
@@ -3856,7 +3582,7 @@
         <v>429.6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18.75">
       <c r="A8" s="35" t="s">
         <v>22</v>
       </c>
@@ -3869,7 +3595,7 @@
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -3902,7 +3628,7 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -3935,7 +3661,7 @@
         <v>79.239999999999981</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -3968,7 +3694,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -4001,7 +3727,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -4034,7 +3760,7 @@
         <v>167.4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18.75">
       <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
@@ -4047,7 +3773,7 @@
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -4080,7 +3806,7 @@
         <v>459.2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="18.75">
       <c r="A16" s="35" t="s">
         <v>19</v>
       </c>
@@ -4093,7 +3819,7 @@
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -4126,7 +3852,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -4159,7 +3885,7 @@
         <v>318.8</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="18.75">
       <c r="A19" s="35" t="s">
         <v>20</v>
       </c>
@@ -4172,7 +3898,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -4205,7 +3931,7 @@
         <v>784.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="34" t="s">
         <v>21</v>
       </c>
@@ -4230,7 +3956,7 @@
         <v>3722.28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -4255,7 +3981,7 @@
         <v>3722.28</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4277,7 +4003,7 @@
       </c>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
@@ -4294,7 +4020,7 @@
         <v>1.8149999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4318,14 +4044,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="R2" sqref="R2:T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -4333,7 +4059,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -4362,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.75">
       <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
@@ -4375,7 +4101,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -4407,12 +4133,8 @@
         <f t="shared" ref="I3:I17" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>287.12</v>
       </c>
-      <c r="S3">
-        <f>E3*3</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -4444,12 +4166,8 @@
         <f t="shared" si="1"/>
         <v>161.75</v>
       </c>
-      <c r="S4">
-        <f t="shared" ref="S4:S19" si="3">E4*3</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -4470,11 +4188,11 @@
         <v>0.06</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" ref="G5:H5" si="4">C5*$E$5/100</f>
+        <f t="shared" ref="G5:H5" si="3">C5*$E$5/100</f>
         <v>8.4</v>
       </c>
       <c r="H5" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
       <c r="I5" s="16">
@@ -4482,7 +4200,7 @@
         <v>34.559999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18.75">
       <c r="A6" s="35" t="s">
         <v>17</v>
       </c>
@@ -4494,12 +4212,8 @@
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
-      <c r="S6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -4520,23 +4234,19 @@
         <v>12.5</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" ref="G7:H7" si="5">C7*$E$7/100</f>
+        <f t="shared" ref="G7:H7" si="4">C7*$E$7/100</f>
         <v>88.75</v>
       </c>
       <c r="H7" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.875</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -4557,23 +4267,19 @@
         <v>21.45</v>
       </c>
       <c r="G8" s="17">
-        <f t="shared" ref="G8:H8" si="6">C8*$E$8/100</f>
+        <f t="shared" ref="G8:H8" si="5">C8*$E$8/100</f>
         <v>0.15</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="I8" s="25">
         <f t="shared" si="1"/>
         <v>234.9</v>
       </c>
-      <c r="S8">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="35" t="s">
         <v>62</v>
       </c>
@@ -4585,12 +4291,8 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="S9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -4619,15 +4321,11 @@
         <v>10.23</v>
       </c>
       <c r="I10" s="25">
-        <f t="shared" ref="I10:I12" si="7">(B10*4+C10*4+D10*9)*E10/100</f>
+        <f t="shared" ref="I10:I12" si="6">(B10*4+C10*4+D10*9)*E10/100</f>
         <v>144.15</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="3"/>
-        <v>930</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -4656,15 +4354,11 @@
         <v>0.1</v>
       </c>
       <c r="I11" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>336.9</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -4693,15 +4387,11 @@
         <v>13.75</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>195.75</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" ht="18.75">
       <c r="A13" s="35" t="s">
         <v>18</v>
       </c>
@@ -4713,12 +4403,8 @@
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-      <c r="S13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -4739,23 +4425,19 @@
         <v>1.35</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" ref="G14:H14" si="8">C14*$E$14/100</f>
+        <f t="shared" ref="G14:H14" si="7">C14*$E$14/100</f>
         <v>109.35</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="1"/>
         <v>442.8</v>
       </c>
-      <c r="S14">
-        <f t="shared" si="3"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" ht="18.75">
       <c r="A15" s="35" t="s">
         <v>19</v>
       </c>
@@ -4767,12 +4449,8 @@
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
-      <c r="S15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -4793,23 +4471,19 @@
         <v>7.7</v>
       </c>
       <c r="G16" s="12">
-        <f t="shared" ref="G16:H16" si="9">C16*$E$16/100</f>
+        <f t="shared" ref="G16:H16" si="8">C16*$E$16/100</f>
         <v>84.7</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" si="1"/>
         <v>369.6</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="3"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -4830,23 +4504,19 @@
         <v>17.875</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" ref="G17:H17" si="10">C17*$E$17/100</f>
+        <f t="shared" ref="G17:H17" si="9">C17*$E$17/100</f>
         <v>0.125</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>13.75</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="1"/>
         <v>195.75</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" ht="18.75">
       <c r="A18" s="35" t="s">
         <v>20</v>
       </c>
@@ -4858,12 +4528,8 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
-      <c r="S18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
@@ -4884,23 +4550,19 @@
         <v>33</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" ref="G19:H19" si="11">C19*$E$19/100</f>
+        <f t="shared" ref="G19:H19" si="10">C19*$E$19/100</f>
         <v>3.3</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.4</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" ref="I19" si="12">(B19*4+C19*4+D19*9)*E19/100</f>
+        <f t="shared" ref="I19" si="11">(B19*4+C19*4+D19*9)*E19/100</f>
         <v>283.8</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="3"/>
-        <v>660</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="34" t="s">
         <v>21</v>
       </c>
@@ -4925,7 +4587,7 @@
         <v>3108.9550000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -4938,7 +4600,7 @@
         <v>530.87999999999988</v>
       </c>
       <c r="G21" s="15">
-        <f t="shared" ref="G21" si="13">G20*4</f>
+        <f t="shared" ref="G21" si="12">G20*4</f>
         <v>1885.8400000000001</v>
       </c>
       <c r="H21" s="15">
@@ -4950,7 +4612,7 @@
         <v>3108.9550000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="10"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -4963,16 +4625,16 @@
         <v>17.075834162926121</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" ref="G22:H22" si="14">G21/($F$21+$G$21+$H$21)*100</f>
+        <f t="shared" ref="G22:H22" si="13">G21/($F$21+$G$21+$H$21)*100</f>
         <v>60.658324099255211</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>22.265841737818654</v>
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="E23" s="6" t="s">
         <v>54</v>
       </c>
@@ -4981,15 +4643,15 @@
         <v>2.0737499999999995</v>
       </c>
       <c r="G23" s="21">
-        <f t="shared" ref="G23:H23" si="15">G20/$A$1</f>
+        <f t="shared" ref="G23:H23" si="14">G20/$A$1</f>
         <v>7.3665625000000006</v>
       </c>
       <c r="H23" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.2017968750000001</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5013,14 +4675,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="S3" sqref="S3:S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -5028,7 +4690,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -5057,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18.75">
       <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
@@ -5070,7 +4732,7 @@
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -5102,12 +4764,8 @@
         <f t="shared" ref="I3:I17" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>287.12</v>
       </c>
-      <c r="S3">
-        <f>E3*3</f>
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -5139,12 +4797,8 @@
         <f t="shared" si="1"/>
         <v>161.75</v>
       </c>
-      <c r="S4">
-        <f t="shared" ref="S4:S19" si="3">E4*3</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -5165,11 +4819,11 @@
         <v>0.06</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" ref="G5:H5" si="4">C5*$E$5/100</f>
+        <f t="shared" ref="G5:H5" si="3">C5*$E$5/100</f>
         <v>8.4</v>
       </c>
       <c r="H5" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.08</v>
       </c>
       <c r="I5" s="16">
@@ -5177,7 +4831,7 @@
         <v>34.559999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18.75">
       <c r="A6" s="35" t="s">
         <v>17</v>
       </c>
@@ -5189,12 +4843,8 @@
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
-      <c r="S6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -5215,23 +4865,19 @@
         <v>12.5</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" ref="G7:H7" si="5">C7*$E$7/100</f>
+        <f t="shared" ref="G7:H7" si="4">C7*$E$7/100</f>
         <v>88.75</v>
       </c>
       <c r="H7" s="12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.875</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="33" t="s">
         <v>52</v>
       </c>
@@ -5252,23 +4898,19 @@
         <v>21.45</v>
       </c>
       <c r="G8" s="17">
-        <f t="shared" ref="G8:H8" si="6">C8*$E$8/100</f>
+        <f t="shared" ref="G8:H8" si="5">C8*$E$8/100</f>
         <v>0.15</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="I8" s="25">
         <f t="shared" si="1"/>
         <v>234.9</v>
       </c>
-      <c r="S8">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="35" t="s">
         <v>62</v>
       </c>
@@ -5280,12 +4922,8 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-      <c r="S9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -5314,15 +4952,11 @@
         <v>10.23</v>
       </c>
       <c r="I10" s="25">
-        <f t="shared" ref="I10:I12" si="7">(B10*4+C10*4+D10*9)*E10/100</f>
+        <f t="shared" ref="I10:I12" si="6">(B10*4+C10*4+D10*9)*E10/100</f>
         <v>144.15</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="3"/>
-        <v>930</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -5351,15 +4985,11 @@
         <v>0</v>
       </c>
       <c r="I11" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>336</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>63</v>
       </c>
@@ -5388,15 +5018,11 @@
         <v>6</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>171.6</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" ht="18.75">
       <c r="A13" s="35" t="s">
         <v>18</v>
       </c>
@@ -5408,12 +5034,8 @@
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-      <c r="S13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -5434,23 +5056,19 @@
         <v>1.35</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" ref="G14:H14" si="8">C14*$E$14/100</f>
+        <f t="shared" ref="G14:H14" si="7">C14*$E$14/100</f>
         <v>109.35</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="1"/>
         <v>442.8</v>
       </c>
-      <c r="S14">
-        <f t="shared" si="3"/>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" ht="18.75">
       <c r="A15" s="35" t="s">
         <v>19</v>
       </c>
@@ -5462,12 +5080,8 @@
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
-      <c r="S15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -5488,23 +5102,19 @@
         <v>7.7</v>
       </c>
       <c r="G16" s="12">
-        <f t="shared" ref="G16:H16" si="9">C16*$E$16/100</f>
+        <f t="shared" ref="G16:H16" si="8">C16*$E$16/100</f>
         <v>84.7</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" si="1"/>
         <v>369.6</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="3"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -5525,23 +5135,19 @@
         <v>29.25</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" ref="G17:H17" si="10">C17*$E$17/100</f>
+        <f t="shared" ref="G17:H17" si="9">C17*$E$17/100</f>
         <v>0.15</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="1"/>
         <v>171.6</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="3"/>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" ht="18.75">
       <c r="A18" s="35" t="s">
         <v>20</v>
       </c>
@@ -5553,12 +5159,8 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
-      <c r="S18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -5579,23 +5181,19 @@
         <v>30.5</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" ref="G19:H19" si="11">C19*$E$19/100</f>
+        <f t="shared" ref="G19:H19" si="10">C19*$E$19/100</f>
         <v>111</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" ref="I19" si="12">(B19*4+C19*4+D19*9)*E19/100</f>
+        <f t="shared" ref="I19" si="11">(B19*4+C19*4+D19*9)*E19/100</f>
         <v>781.99999999999989</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="3"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="34" t="s">
         <v>21</v>
       </c>
@@ -5620,7 +5218,7 @@
         <v>3557.9549999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -5633,7 +5231,7 @@
         <v>611.87999999999988</v>
       </c>
       <c r="G21" s="15">
-        <f t="shared" ref="G21" si="13">G20*4</f>
+        <f t="shared" ref="G21" si="12">G20*4</f>
         <v>2316.84</v>
       </c>
       <c r="H21" s="15">
@@ -5645,7 +5243,7 @@
         <v>3557.9549999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="10"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -5658,16 +5256,16 @@
         <v>17.197519361543357</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" ref="G22:H22" si="14">G21/($F$21+$G$21+$H$21)*100</f>
+        <f t="shared" ref="G22:H22" si="13">G21/($F$21+$G$21+$H$21)*100</f>
         <v>65.117181077332347</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>17.685299561124296</v>
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="E23" s="6" t="s">
         <v>54</v>
       </c>
@@ -5676,15 +5274,15 @@
         <v>2.3901562499999995</v>
       </c>
       <c r="G23" s="21">
-        <f t="shared" ref="G23:H23" si="15">G20/$A$1</f>
+        <f t="shared" ref="G23:H23" si="14">G20/$A$1</f>
         <v>9.0501562500000006</v>
       </c>
       <c r="H23" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>1.0924218749999999</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5708,20 +5306,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="28"/>
       <c r="B1" s="29" t="s">
         <v>34</v>
@@ -5734,7 +5332,7 @@
       </c>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="28" t="s">
         <v>31</v>
       </c>
@@ -5751,7 +5349,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
@@ -5768,7 +5366,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="28" t="s">
         <v>32</v>
       </c>
@@ -5785,7 +5383,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="28" t="s">
         <v>33</v>
       </c>
@@ -5802,7 +5400,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="28" t="s">
         <v>40</v>
       </c>
@@ -5819,7 +5417,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="28" t="s">
         <v>9</v>
       </c>
@@ -5836,7 +5434,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
@@ -5853,7 +5451,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="28" t="s">
         <v>27</v>
       </c>
@@ -5870,7 +5468,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="28" t="s">
         <v>12</v>
       </c>
@@ -5887,7 +5485,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="28" t="s">
         <v>29</v>
       </c>
@@ -5904,7 +5502,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="28" t="s">
         <v>24</v>
       </c>
@@ -5921,7 +5519,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="28" t="s">
         <v>55</v>
       </c>
@@ -5938,7 +5536,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="28" t="s">
         <v>66</v>
       </c>
@@ -5955,7 +5553,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="28" t="s">
         <v>51</v>
       </c>
@@ -5972,7 +5570,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="28" t="s">
         <v>60</v>
       </c>
@@ -5989,7 +5587,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="28" t="s">
         <v>61</v>
       </c>
@@ -6006,7 +5604,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="28" t="s">
         <v>58</v>
       </c>
@@ -6023,7 +5621,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="28" t="s">
         <v>45</v>
       </c>
@@ -6040,7 +5638,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="28" t="s">
         <v>46</v>
       </c>
@@ -6057,7 +5655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75">
       <c r="B21" s="31" t="s">
         <v>67</v>
       </c>
@@ -6066,7 +5664,7 @@
         <v>43.969999999999992</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="18.75">
       <c r="A22" s="36" t="s">
         <v>47</v>
       </c>
@@ -6074,7 +5672,7 @@
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="28" t="s">
         <v>58</v>
       </c>
@@ -6085,7 +5683,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="28" t="s">
         <v>45</v>
       </c>
@@ -6096,7 +5694,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="28" t="s">
         <v>46</v>
       </c>
@@ -6107,7 +5705,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="28" t="s">
         <v>48</v>
       </c>
@@ -6118,7 +5716,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="28"/>
       <c r="B27" s="28" t="s">
         <v>49</v>
@@ -6128,7 +5726,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="28"/>
       <c r="B28" s="28" t="s">
         <v>50</v>

--- a/ratsiony.xlsx
+++ b/ratsiony.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="-135" windowWidth="18540" windowHeight="6690" activeTab="7"/>
+    <workbookView xWindow="165" yWindow="-135" windowWidth="18540" windowHeight="6690"/>
   </bookViews>
   <sheets>
     <sheet name="пн" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="вс" sheetId="11" r:id="rId7"/>
     <sheet name="неделя" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:T19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1247,32 +1247,32 @@
         <v>26</v>
       </c>
       <c r="B20" s="4">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="C20" s="5">
-        <v>22.2</v>
+        <v>20.6</v>
       </c>
       <c r="D20" s="5">
-        <v>4.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E20" s="5">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="F20" s="5">
         <f>B20*$E$20/100</f>
-        <v>30.5</v>
+        <v>31.32</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" ref="G20:H20" si="9">C20*$E$20/100</f>
-        <v>111</v>
+        <v>111.24</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>22.14</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" ref="I20" si="10">(B20*4+C20*4+D20*9)*E20/100</f>
-        <v>781.99999999999989</v>
+        <v>769.5</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75">
@@ -1285,19 +1285,19 @@
       <c r="E21" s="34"/>
       <c r="F21" s="15">
         <f>SUM(F3:F20)</f>
-        <v>130.93</v>
+        <v>131.75</v>
       </c>
       <c r="G21" s="15">
         <f>SUM(G3:G20)</f>
-        <v>518.70499999999993</v>
+        <v>518.94499999999994</v>
       </c>
       <c r="H21" s="15">
         <f>SUM(H3:H20)</f>
-        <v>92.484999999999999</v>
+        <v>90.625</v>
       </c>
       <c r="I21" s="24">
         <f>SUM(I3:I20)</f>
-        <v>3430.9049999999997</v>
+        <v>3418.4049999999997</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75">
@@ -1310,19 +1310,19 @@
       </c>
       <c r="F22" s="15">
         <f>F21*4</f>
-        <v>523.72</v>
+        <v>527</v>
       </c>
       <c r="G22" s="15">
         <f>G21*4</f>
-        <v>2074.8199999999997</v>
+        <v>2075.7799999999997</v>
       </c>
       <c r="H22" s="15">
         <f>H21*9</f>
-        <v>832.36500000000001</v>
+        <v>815.625</v>
       </c>
       <c r="I22" s="24">
         <f>F22+G22+H22</f>
-        <v>3430.9049999999997</v>
+        <v>3418.4049999999997</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75">
@@ -1335,15 +1335,15 @@
       </c>
       <c r="F23" s="15">
         <f>F22/($F$22+$G$22+$H$22)*100</f>
-        <v>15.264777077768112</v>
+        <v>15.416546605800075</v>
       </c>
       <c r="G23" s="15">
         <f t="shared" ref="G23:H23" si="11">G22/($F$22+$G$22+$H$22)*100</f>
-        <v>60.474422929227124</v>
+        <v>60.723641581380782</v>
       </c>
       <c r="H23" s="15">
         <f t="shared" si="11"/>
-        <v>24.260799993004763</v>
+        <v>23.859811812819139</v>
       </c>
       <c r="I23" s="8"/>
     </row>
@@ -1353,15 +1353,15 @@
       </c>
       <c r="F24" s="21">
         <f>F21/$A$1</f>
-        <v>2.0457812500000001</v>
+        <v>2.05859375</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" ref="G24:H24" si="12">G21/$A$1</f>
-        <v>8.1047656249999989</v>
+        <v>8.108515624999999</v>
       </c>
       <c r="H24" s="21">
         <f t="shared" si="12"/>
-        <v>1.445078125</v>
+        <v>1.416015625</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1392,7 +1392,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:T24"/>
+      <selection activeCell="B20" sqref="B20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1911,32 +1911,32 @@
         <v>26</v>
       </c>
       <c r="B20" s="4">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="C20" s="5">
-        <v>22.2</v>
+        <v>20.6</v>
       </c>
       <c r="D20" s="5">
-        <v>4.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E20" s="5">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="F20" s="5">
         <f>B20*$E$20/100</f>
-        <v>30.5</v>
+        <v>31.32</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" ref="G20:H20" si="9">C20*$E$20/100</f>
-        <v>111</v>
+        <v>111.24</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>22.14</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" ref="I20" si="10">(B20*4+C20*4+D20*9)*E20/100</f>
-        <v>781.99999999999989</v>
+        <v>769.5</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75">
@@ -1949,19 +1949,19 @@
       <c r="E21" s="34"/>
       <c r="F21" s="15">
         <f>SUM(F3:F20)</f>
-        <v>114.08</v>
+        <v>114.9</v>
       </c>
       <c r="G21" s="15">
         <f>SUM(G3:G20)</f>
-        <v>543.07999999999993</v>
+        <v>543.31999999999994</v>
       </c>
       <c r="H21" s="15">
         <f>SUM(H3:H20)</f>
-        <v>91.484999999999999</v>
+        <v>89.625</v>
       </c>
       <c r="I21" s="24">
         <f>SUM(I3:I20)</f>
-        <v>3452.0050000000001</v>
+        <v>3439.5050000000001</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75">
@@ -1974,19 +1974,19 @@
       </c>
       <c r="F22" s="15">
         <f>F21*4</f>
-        <v>456.32</v>
+        <v>459.6</v>
       </c>
       <c r="G22" s="15">
         <f t="shared" ref="G22" si="11">G21*4</f>
-        <v>2172.3199999999997</v>
+        <v>2173.2799999999997</v>
       </c>
       <c r="H22" s="15">
         <f>H21*9</f>
-        <v>823.36500000000001</v>
+        <v>806.625</v>
       </c>
       <c r="I22" s="24">
         <f>SUM(F22:H22)</f>
-        <v>3452.0050000000001</v>
+        <v>3439.5049999999997</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75">
@@ -1999,15 +1999,15 @@
       </c>
       <c r="F23" s="9">
         <f>F22/($F$22+$G$22+$H$22)*100</f>
-        <v>13.218984329396974</v>
+        <v>13.362387901747491</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" ref="G23:H23" si="12">G22/($F$22+$G$22+$H$22)*100</f>
-        <v>62.929225189418894</v>
+        <v>63.185836334007362</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="12"/>
-        <v>23.851790481184125</v>
+        <v>23.451775764245149</v>
       </c>
       <c r="I23" s="8"/>
     </row>
@@ -2017,15 +2017,15 @@
       </c>
       <c r="F24" s="21">
         <f>F21/$A$1</f>
-        <v>1.7825</v>
+        <v>1.7953125000000001</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" ref="G24:H24" si="13">G21/$A$1</f>
-        <v>8.4856249999999989</v>
+        <v>8.489374999999999</v>
       </c>
       <c r="H24" s="21">
         <f t="shared" si="13"/>
-        <v>1.429453125</v>
+        <v>1.400390625</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2056,7 +2056,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:S20"/>
+      <selection activeCell="B20" sqref="B20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2575,32 +2575,32 @@
         <v>26</v>
       </c>
       <c r="B20" s="4">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="C20" s="5">
-        <v>22.2</v>
+        <v>20.6</v>
       </c>
       <c r="D20" s="5">
-        <v>4.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E20" s="5">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="F20" s="5">
         <f>B20*$E$20/100</f>
-        <v>30.5</v>
+        <v>31.32</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" ref="G20:H20" si="9">C20*$E$20/100</f>
-        <v>111</v>
+        <v>111.24</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>22.14</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" ref="I20" si="10">(B20*4+C20*4+D20*9)*E20/100</f>
-        <v>781.99999999999989</v>
+        <v>769.5</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75">
@@ -2613,19 +2613,19 @@
       <c r="E21" s="34"/>
       <c r="F21" s="15">
         <f>SUM(F3:F20)</f>
-        <v>131.18</v>
+        <v>132</v>
       </c>
       <c r="G21" s="15">
         <f>SUM(G3:G20)</f>
-        <v>541.505</v>
+        <v>541.745</v>
       </c>
       <c r="H21" s="15">
         <f>SUM(H3:H20)</f>
-        <v>80.984999999999999</v>
+        <v>79.125</v>
       </c>
       <c r="I21" s="18">
         <f>SUM(I3:I20)</f>
-        <v>3419.605</v>
+        <v>3407.105</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75">
@@ -2638,19 +2638,19 @@
       </c>
       <c r="F22" s="15">
         <f>F21*4</f>
-        <v>524.72</v>
+        <v>528</v>
       </c>
       <c r="G22" s="15">
         <f>G21*4</f>
-        <v>2166.02</v>
+        <v>2166.98</v>
       </c>
       <c r="H22" s="15">
         <f>H21*9</f>
-        <v>728.86500000000001</v>
+        <v>712.125</v>
       </c>
       <c r="I22" s="18">
         <f>F22+G22+H22</f>
-        <v>3419.6049999999996</v>
+        <v>3407.105</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75">
@@ -2663,15 +2663,15 @@
       </c>
       <c r="F23" s="15">
         <f>F22/($F$22+$G$22+$H$22)*100</f>
-        <v>15.344462299008221</v>
+        <v>15.497027535106783</v>
       </c>
       <c r="G23" s="15">
         <f t="shared" ref="G23:H23" si="11">G22/($F$22+$G$22+$H$22)*100</f>
-        <v>63.341233855957057</v>
+        <v>63.601796833382011</v>
       </c>
       <c r="H23" s="15">
         <f t="shared" si="11"/>
-        <v>21.314303845034736</v>
+        <v>20.901175631511208</v>
       </c>
       <c r="I23" s="18"/>
     </row>
@@ -2681,15 +2681,15 @@
       </c>
       <c r="F24" s="21">
         <f>F21/$A$1</f>
-        <v>2.0496875000000001</v>
+        <v>2.0625</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" ref="G24:H24" si="12">G21/$A$1</f>
-        <v>8.4610156249999999</v>
+        <v>8.4647656250000001</v>
       </c>
       <c r="H24" s="21">
         <f t="shared" si="12"/>
-        <v>1.265390625</v>
+        <v>1.236328125</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2720,7 +2720,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:T22"/>
+      <selection activeCell="B20" sqref="B20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3239,32 +3239,32 @@
         <v>26</v>
       </c>
       <c r="B20" s="4">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="C20" s="5">
-        <v>22.2</v>
+        <v>20.6</v>
       </c>
       <c r="D20" s="5">
-        <v>4.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E20" s="5">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="F20" s="5">
         <f>B20*$E$20/100</f>
-        <v>30.5</v>
+        <v>31.32</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" ref="G20:H20" si="9">C20*$E$20/100</f>
-        <v>111</v>
+        <v>111.24</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="9"/>
-        <v>24</v>
+        <v>22.14</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" ref="I20" si="10">(B20*4+C20*4+D20*9)*E20/100</f>
-        <v>781.99999999999989</v>
+        <v>769.5</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75">
@@ -3277,19 +3277,19 @@
       <c r="E21" s="34"/>
       <c r="F21" s="15">
         <f>SUM(F3:F20)</f>
-        <v>131.20499999999998</v>
+        <v>132.02500000000001</v>
       </c>
       <c r="G21" s="15">
         <f>SUM(G3:G20)</f>
-        <v>543.10500000000002</v>
+        <v>543.34499999999991</v>
       </c>
       <c r="H21" s="15">
         <f>SUM(H3:H20)</f>
-        <v>71.234999999999999</v>
+        <v>69.375</v>
       </c>
       <c r="I21" s="18">
         <f>SUM(I3:I20)</f>
-        <v>3338.355</v>
+        <v>3325.855</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75">
@@ -3302,19 +3302,19 @@
       </c>
       <c r="F22" s="15">
         <f>F21*4</f>
-        <v>524.81999999999994</v>
+        <v>528.1</v>
       </c>
       <c r="G22" s="15">
         <f t="shared" ref="G22" si="11">G21*4</f>
-        <v>2172.42</v>
+        <v>2173.3799999999997</v>
       </c>
       <c r="H22" s="15">
         <f>H21*9</f>
-        <v>641.11500000000001</v>
+        <v>624.375</v>
       </c>
       <c r="I22" s="18">
         <f>SUM(F22:H22)</f>
-        <v>3338.3549999999996</v>
+        <v>3325.8549999999996</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75">
@@ -3327,15 +3327,15 @@
       </c>
       <c r="F23" s="9">
         <f>F22/($F$22+$G$22+$H$22)*100</f>
-        <v>15.720916439384066</v>
+        <v>15.878623692253575</v>
       </c>
       <c r="G23" s="9">
         <f t="shared" ref="G23:H23" si="12">G22/($F$22+$G$22+$H$22)*100</f>
-        <v>65.074565167575059</v>
+        <v>65.348008256523499</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="12"/>
-        <v>19.204518393040885</v>
+        <v>18.773368051222921</v>
       </c>
       <c r="I23" s="8"/>
     </row>
@@ -3345,15 +3345,15 @@
       </c>
       <c r="F24" s="21">
         <f>F21/$A$1</f>
-        <v>2.0500781249999998</v>
+        <v>2.0628906250000001</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" ref="G24:H24" si="13">G21/$A$1</f>
-        <v>8.4860156250000003</v>
+        <v>8.4897656249999986</v>
       </c>
       <c r="H24" s="21">
         <f t="shared" si="13"/>
-        <v>1.113046875</v>
+        <v>1.083984375</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3384,7 +3384,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="B20" sqref="B20:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3903,32 +3903,32 @@
         <v>26</v>
       </c>
       <c r="B20" s="4">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="C20" s="5">
-        <v>19.7</v>
+        <v>20.6</v>
       </c>
       <c r="D20" s="5">
-        <v>5.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E20" s="5">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="F20" s="5">
         <f>B20*$E$20/100</f>
-        <v>33.5</v>
+        <v>31.32</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" ref="G20:H20" si="9">C20*$E$20/100</f>
-        <v>98.5</v>
+        <v>111.24</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="9"/>
-        <v>28.5</v>
+        <v>22.14</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" ref="I20" si="10">(B20*4+C20*4+D20*9)*E20/100</f>
-        <v>784.5</v>
+        <v>769.5</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75">
@@ -3941,19 +3941,19 @@
       <c r="E21" s="34"/>
       <c r="F21" s="15">
         <f>SUM(F3:F20)</f>
-        <v>158.33000000000001</v>
+        <v>156.15</v>
       </c>
       <c r="G21" s="15">
         <f>SUM(G3:G20)</f>
-        <v>510.88</v>
+        <v>523.62</v>
       </c>
       <c r="H21" s="15">
         <f>SUM(H3:H20)</f>
-        <v>116.16</v>
+        <v>109.8</v>
       </c>
       <c r="I21" s="18">
         <f>SUM(I3:I20)</f>
-        <v>3722.28</v>
+        <v>3707.28</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75">
@@ -3966,19 +3966,19 @@
       </c>
       <c r="F22" s="15">
         <f>F21*4</f>
-        <v>633.32000000000005</v>
+        <v>624.6</v>
       </c>
       <c r="G22" s="15">
         <f t="shared" ref="G22" si="11">G21*4</f>
-        <v>2043.52</v>
+        <v>2094.48</v>
       </c>
       <c r="H22" s="15">
         <f>H21*9</f>
-        <v>1045.44</v>
+        <v>988.19999999999993</v>
       </c>
       <c r="I22" s="18">
         <f>SUM(F22:H22)</f>
-        <v>3722.28</v>
+        <v>3707.2799999999997</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="F23" s="15">
         <f>F22/($F$22+$G$22+$H$22)*100</f>
-        <v>17.014303061564419</v>
+        <v>16.847931637211111</v>
       </c>
       <c r="G23" s="15">
         <f t="shared" ref="G23:H23" si="12">G22/($F$22+$G$22+$H$22)*100</f>
-        <v>54.899685139215748</v>
+        <v>56.496407069333856</v>
       </c>
       <c r="H23" s="15">
         <f t="shared" si="12"/>
-        <v>28.086011799219833</v>
+        <v>26.65566129345504</v>
       </c>
       <c r="I23" s="18"/>
     </row>
@@ -4009,15 +4009,15 @@
       </c>
       <c r="F24" s="21">
         <f>F21/$A$1</f>
-        <v>2.4739062500000002</v>
+        <v>2.4398437500000001</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" ref="G24:H24" si="13">G21/$A$1</f>
-        <v>7.9824999999999999</v>
+        <v>8.1815625000000001</v>
       </c>
       <c r="H24" s="21">
         <f t="shared" si="13"/>
-        <v>1.8149999999999999</v>
+        <v>1.715625</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -4679,7 +4679,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S28"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5165,32 +5165,32 @@
         <v>26</v>
       </c>
       <c r="B19" s="4">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="C19" s="5">
-        <v>22.2</v>
+        <v>20.6</v>
       </c>
       <c r="D19" s="5">
-        <v>4.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E19" s="5">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="F19" s="5">
         <f>B19*$E$19/100</f>
-        <v>30.5</v>
+        <v>31.32</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" ref="G19:H19" si="10">C19*$E$19/100</f>
-        <v>111</v>
+        <v>111.24</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" si="10"/>
-        <v>24</v>
+        <v>22.14</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" ref="I19" si="11">(B19*4+C19*4+D19*9)*E19/100</f>
-        <v>781.99999999999989</v>
+        <v>769.5</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75">
@@ -5203,19 +5203,19 @@
       <c r="E20" s="34"/>
       <c r="F20" s="15">
         <f>SUM(F3:F19)</f>
-        <v>152.96999999999997</v>
+        <v>153.79</v>
       </c>
       <c r="G20" s="15">
         <f>SUM(G3:G19)</f>
-        <v>579.21</v>
+        <v>579.44999999999993</v>
       </c>
       <c r="H20" s="15">
         <f>SUM(H3:H19)</f>
-        <v>69.914999999999992</v>
+        <v>68.055000000000007</v>
       </c>
       <c r="I20" s="18">
         <f>SUM(I3:I19)</f>
-        <v>3557.9549999999999</v>
+        <v>3545.4549999999999</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75">
@@ -5228,19 +5228,19 @@
       </c>
       <c r="F21" s="15">
         <f>F20*4</f>
-        <v>611.87999999999988</v>
+        <v>615.16</v>
       </c>
       <c r="G21" s="15">
         <f t="shared" ref="G21" si="12">G20*4</f>
-        <v>2316.84</v>
+        <v>2317.7999999999997</v>
       </c>
       <c r="H21" s="15">
         <f>H20*9</f>
-        <v>629.2349999999999</v>
+        <v>612.49500000000012</v>
       </c>
       <c r="I21" s="18">
         <f>SUM(F21:H21)</f>
-        <v>3557.9549999999999</v>
+        <v>3545.4549999999999</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75">
@@ -5253,15 +5253,15 @@
       </c>
       <c r="F22" s="9">
         <f>F21/($F$21+$G$21+$H$21)*100</f>
-        <v>17.197519361543357</v>
+        <v>17.350664442222509</v>
       </c>
       <c r="G22" s="9">
         <f t="shared" ref="G22:H22" si="13">G21/($F$21+$G$21+$H$21)*100</f>
-        <v>65.117181077332347</v>
+        <v>65.373837772584892</v>
       </c>
       <c r="H22" s="9">
         <f t="shared" si="13"/>
-        <v>17.685299561124296</v>
+        <v>17.275497785192595</v>
       </c>
       <c r="I22" s="8"/>
     </row>
@@ -5271,15 +5271,15 @@
       </c>
       <c r="F23" s="21">
         <f>F20/$A$1</f>
-        <v>2.3901562499999995</v>
+        <v>2.4029687499999999</v>
       </c>
       <c r="G23" s="21">
         <f t="shared" ref="G23:H23" si="14">G20/$A$1</f>
-        <v>9.0501562500000006</v>
+        <v>9.0539062499999989</v>
       </c>
       <c r="H23" s="21">
         <f t="shared" si="14"/>
-        <v>1.0924218749999999</v>
+        <v>1.0633593750000001</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -5309,7 +5309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>

--- a/ratsiony.xlsx
+++ b/ratsiony.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="-135" windowWidth="18540" windowHeight="6690"/>
+    <workbookView xWindow="165" yWindow="-135" windowWidth="18540" windowHeight="6690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="пн" sheetId="5" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <sheet name="вс" sheetId="11" r:id="rId7"/>
     <sheet name="неделя" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="76">
   <si>
     <t>калории</t>
   </si>
@@ -234,16 +234,31 @@
   </si>
   <si>
     <t>Творог</t>
+  </si>
+  <si>
+    <t>% воды</t>
+  </si>
+  <si>
+    <t>Масса,г</t>
+  </si>
+  <si>
+    <t>Вода</t>
+  </si>
+  <si>
+    <t>Чай</t>
+  </si>
+  <si>
+    <t>Кофе</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,12 +318,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -338,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,6 +447,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -515,6 +548,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -549,6 +583,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -724,22 +759,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="18" width="9.140625" customWidth="1"/>
+    <col min="4" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -767,8 +804,14 @@
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75">
+      <c r="J1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
@@ -780,8 +823,10 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -813,8 +858,16 @@
         <f t="shared" ref="I3:I18" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>231.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
+      <c r="J3" s="38">
+        <f>0.95*(100-D3-C3-B3)</f>
+        <v>13.299999999999999</v>
+      </c>
+      <c r="K3" s="38">
+        <f>J3*E3/100</f>
+        <v>8.7779999999999987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -846,8 +899,16 @@
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75">
+      <c r="J4" s="38">
+        <f>0.95*(100-D4-C4-B4)</f>
+        <v>84.644999999999996</v>
+      </c>
+      <c r="K4" s="38">
+        <f t="shared" ref="K4:K20" si="3">J4*E4/100</f>
+        <v>211.61250000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
@@ -859,8 +920,10 @@
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -881,19 +944,27 @@
         <v>24</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ref="G6:H6" si="3">C6*$E$6/100</f>
+        <f t="shared" ref="G6:H6" si="4">C6*$E$6/100</f>
         <v>52</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="1"/>
         <v>317.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
+      <c r="J6" s="38">
+        <f t="shared" ref="J5:J21" si="5">0.95*(100-D6-C6-B6)</f>
+        <v>21.375</v>
+      </c>
+      <c r="K6" s="38">
+        <f t="shared" si="3"/>
+        <v>21.375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -914,19 +985,27 @@
         <v>18</v>
       </c>
       <c r="G7" s="17">
-        <f t="shared" ref="G7:H7" si="4">C7*$E$7/100</f>
+        <f t="shared" ref="G7:H7" si="6">C7*$E$7/100</f>
         <v>1.5</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="I7" s="25">
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75">
+      <c r="J7" s="38">
+        <f t="shared" si="5"/>
+        <v>67.45</v>
+      </c>
+      <c r="K7" s="38">
+        <f t="shared" si="3"/>
+        <v>101.175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>22</v>
       </c>
@@ -938,8 +1017,10 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -968,11 +1049,19 @@
         <v>5.4</v>
       </c>
       <c r="I9" s="16">
-        <f t="shared" ref="I9:I13" si="5">(B9*4+C9*4+D9*9)*E9/100</f>
+        <f t="shared" ref="I9:I13" si="7">(B9*4+C9*4+D9*9)*E9/100</f>
         <v>67.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
+      <c r="J9" s="38">
+        <f t="shared" si="5"/>
+        <v>85.309999999999988</v>
+      </c>
+      <c r="K9" s="38">
+        <f t="shared" si="3"/>
+        <v>85.309999999999988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1001,11 +1090,19 @@
         <v>0.52</v>
       </c>
       <c r="I10" s="16">
+        <f t="shared" si="7"/>
+        <v>79.239999999999981</v>
+      </c>
+      <c r="J10" s="38">
         <f t="shared" si="5"/>
-        <v>79.239999999999981</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
+        <v>49.495000000000005</v>
+      </c>
+      <c r="K10" s="38">
+        <f t="shared" si="3"/>
+        <v>19.798000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1034,11 +1131,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="16">
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+      <c r="J11" s="38">
         <f t="shared" si="5"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
+        <v>81.7</v>
+      </c>
+      <c r="K11" s="38">
+        <f t="shared" si="3"/>
+        <v>163.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1067,11 +1172,19 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I12" s="16">
+        <f t="shared" si="7"/>
+        <v>186</v>
+      </c>
+      <c r="J12" s="38">
         <f t="shared" si="5"/>
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
+        <v>75.524999999999977</v>
+      </c>
+      <c r="K12" s="38">
+        <f t="shared" si="3"/>
+        <v>151.04999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1100,11 +1213,19 @@
         <v>6.3</v>
       </c>
       <c r="I13" s="16">
+        <f t="shared" si="7"/>
+        <v>128.69999999999999</v>
+      </c>
+      <c r="J13" s="38">
         <f t="shared" si="5"/>
-        <v>128.69999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75">
+        <v>69.349999999999994</v>
+      </c>
+      <c r="K13" s="38">
+        <f t="shared" si="3"/>
+        <v>62.414999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
@@ -1116,8 +1237,10 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1138,19 +1261,27 @@
         <v>1.4</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" ref="G15:H15" si="6">C15*$E$15/100</f>
+        <f t="shared" ref="G15:H15" si="8">C15*$E$15/100</f>
         <v>114.8</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="1"/>
         <v>464.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75">
+      <c r="J15" s="38">
+        <f t="shared" si="5"/>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="K15" s="38">
+        <f t="shared" si="3"/>
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>19</v>
       </c>
@@ -1162,8 +1293,10 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1184,19 +1317,27 @@
         <v>13</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" ref="G17:H17" si="7">C17*$E$17/100</f>
+        <f t="shared" ref="G17:H17" si="9">C17*$E$17/100</f>
         <v>89.375</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.375</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75">
+      <c r="J17" s="38">
+        <f t="shared" si="5"/>
+        <v>16.150000000000006</v>
+      </c>
+      <c r="K17" s="38">
+        <f t="shared" si="3"/>
+        <v>20.187500000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1217,19 +1358,27 @@
         <v>12</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" ref="G18:H18" si="8">C18*$E$18/100</f>
+        <f t="shared" ref="G18:H18" si="10">C18*$E$18/100</f>
         <v>1</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="18.75">
+      <c r="J18" s="38">
+        <f t="shared" si="5"/>
+        <v>67.45</v>
+      </c>
+      <c r="K18" s="38">
+        <f t="shared" si="3"/>
+        <v>67.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>20</v>
       </c>
@@ -1241,8 +1390,10 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1263,19 +1414,27 @@
         <v>31.32</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" ref="G20:H20" si="9">C20*$E$20/100</f>
+        <f t="shared" ref="G20:H20" si="11">C20*$E$20/100</f>
         <v>111.24</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22.14</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20" si="10">(B20*4+C20*4+D20*9)*E20/100</f>
+        <f t="shared" ref="I20" si="12">(B20*4+C20*4+D20*9)*E20/100</f>
         <v>769.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
+      <c r="J20" s="38">
+        <f t="shared" si="5"/>
+        <v>66.025000000000006</v>
+      </c>
+      <c r="K20" s="38">
+        <f t="shared" si="3"/>
+        <v>356.53500000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>21</v>
       </c>
@@ -1299,8 +1458,13 @@
         <f>SUM(I3:I20)</f>
         <v>3418.4049999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
+      <c r="J21" s="37"/>
+      <c r="K21" s="15">
+        <f>SUM(K3:K20)</f>
+        <v>1291.6959999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -1325,7 +1489,7 @@
         <v>3418.4049999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1338,16 +1502,16 @@
         <v>15.416546605800075</v>
       </c>
       <c r="G23" s="15">
-        <f t="shared" ref="G23:H23" si="11">G22/($F$22+$G$22+$H$22)*100</f>
+        <f t="shared" ref="G23:H23" si="13">G22/($F$22+$G$22+$H$22)*100</f>
         <v>60.723641581380782</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>23.859811812819139</v>
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
@@ -1356,15 +1520,15 @@
         <v>2.05859375</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" ref="G24:H24" si="12">G21/$A$1</f>
+        <f t="shared" ref="G24:H24" si="14">G21/$A$1</f>
         <v>8.108515624999999</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.416015625</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1384,18 +1548,19 @@
     <mergeCell ref="A19:I19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
+      <selection activeCell="J1" sqref="J1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -1403,7 +1568,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -1431,8 +1596,14 @@
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75">
+      <c r="J1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
@@ -1444,8 +1615,10 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -1477,8 +1650,16 @@
         <f t="shared" ref="I3:I18" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>231.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
+      <c r="J3" s="38">
+        <f>0.95*(100-D3-C3-B3)</f>
+        <v>13.299999999999999</v>
+      </c>
+      <c r="K3" s="38">
+        <f>J3*E3/100</f>
+        <v>8.7779999999999987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -1510,8 +1691,16 @@
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75">
+      <c r="J4" s="38">
+        <f t="shared" ref="J4:J20" si="3">0.95*(100-D4-C4-B4)</f>
+        <v>84.644999999999996</v>
+      </c>
+      <c r="K4" s="38">
+        <f t="shared" ref="K4:K20" si="4">J4*E4/100</f>
+        <v>211.61250000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
@@ -1523,8 +1712,10 @@
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1545,19 +1736,27 @@
         <v>12.5</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ref="G6:H6" si="3">C6*$E$6/100</f>
+        <f t="shared" ref="G6:H6" si="5">C6*$E$6/100</f>
         <v>88.75</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.875</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
+      <c r="J6" s="38">
+        <f t="shared" si="3"/>
+        <v>16.625</v>
+      </c>
+      <c r="K6" s="38">
+        <f t="shared" si="4"/>
+        <v>20.78125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -1578,22 +1777,28 @@
         <v>12</v>
       </c>
       <c r="G7" s="17">
-        <f t="shared" ref="G7:H7" si="4">C7*$E$7/100</f>
+        <f t="shared" ref="G7:H7" si="6">C7*$E$7/100</f>
         <v>0.1</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="I7" s="25">
         <f t="shared" si="1"/>
         <v>192.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75">
-      <c r="A8" s="35" t="s">
-        <v>22</v>
-      </c>
+      <c r="J7" s="38">
+        <f t="shared" si="3"/>
+        <v>68.305000000000007</v>
+      </c>
+      <c r="K7" s="38">
+        <f t="shared" si="4"/>
+        <v>68.305000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -1602,8 +1807,10 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1632,11 +1839,19 @@
         <v>5.4</v>
       </c>
       <c r="I9" s="25">
-        <f t="shared" ref="I9:I13" si="5">(B9*4+C9*4+D9*9)*E9/100</f>
+        <f t="shared" ref="I9:I13" si="7">(B9*4+C9*4+D9*9)*E9/100</f>
         <v>67.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
+      <c r="J9" s="38">
+        <f t="shared" si="3"/>
+        <v>85.309999999999988</v>
+      </c>
+      <c r="K9" s="38">
+        <f t="shared" si="4"/>
+        <v>85.309999999999988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1665,11 +1880,19 @@
         <v>0.52</v>
       </c>
       <c r="I10" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>79.239999999999981</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
+      <c r="J10" s="38">
+        <f t="shared" si="3"/>
+        <v>49.495000000000005</v>
+      </c>
+      <c r="K10" s="38">
+        <f t="shared" si="4"/>
+        <v>19.798000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1698,11 +1921,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
+      <c r="J11" s="38">
+        <f t="shared" si="3"/>
+        <v>81.7</v>
+      </c>
+      <c r="K11" s="38">
+        <f t="shared" si="4"/>
+        <v>163.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1731,11 +1962,19 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>186</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
+      <c r="J12" s="38">
+        <f t="shared" si="3"/>
+        <v>75.524999999999977</v>
+      </c>
+      <c r="K12" s="38">
+        <f t="shared" si="4"/>
+        <v>151.04999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1764,14 +2003,20 @@
         <v>6.3</v>
       </c>
       <c r="I13" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>128.69999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75">
-      <c r="A14" s="35" t="s">
-        <v>18</v>
-      </c>
+      <c r="J13" s="38">
+        <f t="shared" si="3"/>
+        <v>69.349999999999994</v>
+      </c>
+      <c r="K13" s="38">
+        <f t="shared" si="4"/>
+        <v>62.414999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
@@ -1780,8 +2025,10 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1802,22 +2049,28 @@
         <v>1.35</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" ref="G15:H15" si="6">C15*$E$15/100</f>
+        <f t="shared" ref="G15:H15" si="8">C15*$E$15/100</f>
         <v>109.35</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="1"/>
         <v>442.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75">
-      <c r="A16" s="35" t="s">
-        <v>19</v>
-      </c>
+      <c r="J15" s="38">
+        <f t="shared" si="3"/>
+        <v>17.099999999999998</v>
+      </c>
+      <c r="K15" s="38">
+        <f t="shared" si="4"/>
+        <v>23.084999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
@@ -1826,8 +2079,10 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -1848,19 +2103,27 @@
         <v>7.7</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" ref="G17:H17" si="7">C17*$E$17/100</f>
+        <f t="shared" ref="G17:H17" si="9">C17*$E$17/100</f>
         <v>84.7</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="1"/>
         <v>369.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75">
+      <c r="J17" s="38">
+        <f t="shared" si="3"/>
+        <v>15.2</v>
+      </c>
+      <c r="K17" s="38">
+        <f t="shared" si="4"/>
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>68</v>
       </c>
@@ -1881,19 +2144,27 @@
         <v>18</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" ref="G18:H18" si="8">C18*$E$18/100</f>
+        <f t="shared" ref="G18:H18" si="10">C18*$E$18/100</f>
         <v>0.15</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="1"/>
         <v>288.60000000000002</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="18.75">
+      <c r="J18" s="38">
+        <f t="shared" si="3"/>
+        <v>68.305000000000007</v>
+      </c>
+      <c r="K18" s="38">
+        <f t="shared" si="4"/>
+        <v>102.45750000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>20</v>
       </c>
@@ -1905,8 +2176,10 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1927,19 +2200,27 @@
         <v>31.32</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" ref="G20:H20" si="9">C20*$E$20/100</f>
+        <f t="shared" ref="G20:H20" si="11">C20*$E$20/100</f>
         <v>111.24</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22.14</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20" si="10">(B20*4+C20*4+D20*9)*E20/100</f>
+        <f t="shared" ref="I20" si="12">(B20*4+C20*4+D20*9)*E20/100</f>
         <v>769.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
+      <c r="J20" s="38">
+        <f t="shared" si="3"/>
+        <v>66.025000000000006</v>
+      </c>
+      <c r="K20" s="38">
+        <f t="shared" si="4"/>
+        <v>356.53500000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>21</v>
       </c>
@@ -1963,8 +2244,12 @@
         <f>SUM(I3:I20)</f>
         <v>3439.5050000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
+      <c r="K21" s="15">
+        <f>SUM(K3:K20)</f>
+        <v>1290.2472500000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -1977,7 +2262,7 @@
         <v>459.6</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" ref="G22" si="11">G21*4</f>
+        <f t="shared" ref="G22" si="13">G21*4</f>
         <v>2173.2799999999997</v>
       </c>
       <c r="H22" s="15">
@@ -1989,7 +2274,7 @@
         <v>3439.5049999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2002,16 +2287,16 @@
         <v>13.362387901747491</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" ref="G23:H23" si="12">G22/($F$22+$G$22+$H$22)*100</f>
+        <f t="shared" ref="G23:H23" si="14">G22/($F$22+$G$22+$H$22)*100</f>
         <v>63.185836334007362</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23.451775764245149</v>
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
@@ -2020,15 +2305,15 @@
         <v>1.7953125000000001</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" ref="G24:H24" si="13">G21/$A$1</f>
+        <f t="shared" ref="G24:H24" si="15">G21/$A$1</f>
         <v>8.489374999999999</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.400390625</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2052,14 +2337,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
+      <selection activeCell="J1" sqref="J1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -2067,7 +2352,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -2095,8 +2380,14 @@
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75">
+      <c r="J1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
@@ -2108,8 +2399,10 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -2141,8 +2434,16 @@
         <f t="shared" ref="I3:I18" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>231.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
+      <c r="J3" s="38">
+        <f>0.95*(100-D3-C3-B3)</f>
+        <v>13.299999999999999</v>
+      </c>
+      <c r="K3" s="38">
+        <f>J3*E3/100</f>
+        <v>8.7779999999999987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -2174,8 +2475,16 @@
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75">
+      <c r="J4" s="38">
+        <f t="shared" ref="J4:J20" si="3">0.95*(100-D4-C4-B4)</f>
+        <v>84.644999999999996</v>
+      </c>
+      <c r="K4" s="38">
+        <f t="shared" ref="K4:K20" si="4">J4*E4/100</f>
+        <v>211.61250000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
@@ -2187,8 +2496,10 @@
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2209,19 +2520,27 @@
         <v>7</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" ref="G6:H6" si="3">C6*$E$6/100</f>
+        <f t="shared" ref="G6:H6" si="5">C6*$E$6/100</f>
         <v>77</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="1"/>
         <v>336</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
+      <c r="J6" s="38">
+        <f t="shared" si="3"/>
+        <v>15.2</v>
+      </c>
+      <c r="K6" s="38">
+        <f t="shared" si="4"/>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -2242,19 +2561,27 @@
         <v>18</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" ref="G7:H7" si="4">C7*$E$7/100</f>
+        <f t="shared" ref="G7:H7" si="6">C7*$E$7/100</f>
         <v>0.15</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="I7" s="19">
         <f t="shared" si="1"/>
         <v>288.60000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75">
+      <c r="J7" s="38">
+        <f t="shared" si="3"/>
+        <v>68.305000000000007</v>
+      </c>
+      <c r="K7" s="38">
+        <f t="shared" si="4"/>
+        <v>102.45750000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>22</v>
       </c>
@@ -2266,8 +2593,10 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2296,11 +2625,19 @@
         <v>5.4</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" ref="I9:I13" si="5">(B9*4+C9*4+D9*9)*E9/100</f>
+        <f t="shared" ref="I9:I13" si="7">(B9*4+C9*4+D9*9)*E9/100</f>
         <v>67.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
+      <c r="J9" s="38">
+        <f t="shared" si="3"/>
+        <v>85.309999999999988</v>
+      </c>
+      <c r="K9" s="38">
+        <f t="shared" si="4"/>
+        <v>85.309999999999988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2329,11 +2666,19 @@
         <v>0.52</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>79.239999999999981</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
+      <c r="J10" s="38">
+        <f t="shared" si="3"/>
+        <v>49.495000000000005</v>
+      </c>
+      <c r="K10" s="38">
+        <f t="shared" si="4"/>
+        <v>19.798000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -2362,11 +2707,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
+      <c r="J11" s="38">
+        <f t="shared" si="3"/>
+        <v>81.7</v>
+      </c>
+      <c r="K11" s="38">
+        <f t="shared" si="4"/>
+        <v>163.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -2395,11 +2748,19 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>186</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
+      <c r="J12" s="38">
+        <f t="shared" si="3"/>
+        <v>75.524999999999977</v>
+      </c>
+      <c r="K12" s="38">
+        <f t="shared" si="4"/>
+        <v>151.04999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2428,11 +2789,19 @@
         <v>6.3</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>128.69999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75">
+      <c r="J13" s="38">
+        <f t="shared" si="3"/>
+        <v>69.349999999999994</v>
+      </c>
+      <c r="K13" s="38">
+        <f t="shared" si="4"/>
+        <v>62.414999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
@@ -2444,8 +2813,10 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -2466,19 +2837,27 @@
         <v>1.4</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" ref="G15:H15" si="6">C15*$E$15/100</f>
+        <f t="shared" ref="G15:H15" si="8">C15*$E$15/100</f>
         <v>114.8</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="1"/>
         <v>464.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75">
+      <c r="J15" s="38">
+        <f t="shared" si="3"/>
+        <v>16.149999999999999</v>
+      </c>
+      <c r="K15" s="38">
+        <f t="shared" si="4"/>
+        <v>22.61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>19</v>
       </c>
@@ -2490,8 +2869,16 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
+      <c r="J16" s="38">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="K16" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -2512,19 +2899,27 @@
         <v>13</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" ref="G17:H17" si="7">C17*$E$17/100</f>
+        <f t="shared" ref="G17:H17" si="9">C17*$E$17/100</f>
         <v>89.375</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.375</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75">
+      <c r="J17" s="38">
+        <f t="shared" si="3"/>
+        <v>16.150000000000006</v>
+      </c>
+      <c r="K17" s="38">
+        <f t="shared" si="4"/>
+        <v>20.187500000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -2545,19 +2940,27 @@
         <v>29.25</v>
       </c>
       <c r="G18" s="11">
-        <f t="shared" ref="G18:H18" si="8">C18*$E$18/100</f>
+        <f t="shared" ref="G18:H18" si="10">C18*$E$18/100</f>
         <v>0.15</v>
       </c>
       <c r="H18" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="1"/>
         <v>171.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="18.75">
+      <c r="J18" s="38">
+        <f t="shared" si="3"/>
+        <v>72.58</v>
+      </c>
+      <c r="K18" s="38">
+        <f t="shared" si="4"/>
+        <v>108.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>20</v>
       </c>
@@ -2569,8 +2972,10 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -2591,19 +2996,27 @@
         <v>31.32</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" ref="G20:H20" si="9">C20*$E$20/100</f>
+        <f t="shared" ref="G20:H20" si="11">C20*$E$20/100</f>
         <v>111.24</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22.14</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20" si="10">(B20*4+C20*4+D20*9)*E20/100</f>
+        <f t="shared" ref="I20" si="12">(B20*4+C20*4+D20*9)*E20/100</f>
         <v>769.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
+      <c r="J20" s="38">
+        <f t="shared" si="3"/>
+        <v>66.025000000000006</v>
+      </c>
+      <c r="K20" s="38">
+        <f t="shared" si="4"/>
+        <v>356.53500000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>21</v>
       </c>
@@ -2627,8 +3040,12 @@
         <f>SUM(I3:I20)</f>
         <v>3407.105</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
+      <c r="K21" s="15">
+        <f>SUM(K3:K20)</f>
+        <v>1328.2235000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -2653,7 +3070,7 @@
         <v>3407.105</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2666,16 +3083,16 @@
         <v>15.497027535106783</v>
       </c>
       <c r="G23" s="15">
-        <f t="shared" ref="G23:H23" si="11">G22/($F$22+$G$22+$H$22)*100</f>
+        <f t="shared" ref="G23:H23" si="13">G22/($F$22+$G$22+$H$22)*100</f>
         <v>63.601796833382011</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20.901175631511208</v>
       </c>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
@@ -2684,15 +3101,15 @@
         <v>2.0625</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" ref="G24:H24" si="12">G21/$A$1</f>
+        <f t="shared" ref="G24:H24" si="14">G21/$A$1</f>
         <v>8.4647656250000001</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.236328125</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2716,14 +3133,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
+      <selection activeCell="J1" sqref="J1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -2731,7 +3148,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -2759,8 +3176,14 @@
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75">
+      <c r="J1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
@@ -2772,8 +3195,10 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -2805,8 +3230,16 @@
         <f t="shared" ref="I3:I18" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>231.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
+      <c r="J3" s="38">
+        <f>0.95*(100-D3-C3-B3)</f>
+        <v>13.299999999999999</v>
+      </c>
+      <c r="K3" s="38">
+        <f>J3*E3/100</f>
+        <v>8.7779999999999987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -2838,8 +3271,16 @@
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75">
+      <c r="J4" s="38">
+        <f t="shared" ref="J4:J20" si="3">0.95*(100-D4-C4-B4)</f>
+        <v>84.644999999999996</v>
+      </c>
+      <c r="K4" s="38">
+        <f t="shared" ref="K4:K20" si="4">J4*E4/100</f>
+        <v>211.61250000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
@@ -2851,8 +3292,10 @@
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -2873,19 +3316,27 @@
         <v>12.5</v>
       </c>
       <c r="G6" s="12">
-        <f t="shared" ref="G6:H6" si="3">C6*$E$6/100</f>
+        <f t="shared" ref="G6:H6" si="5">C6*$E$6/100</f>
         <v>88.75</v>
       </c>
       <c r="H6" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.875</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
+      <c r="J6" s="38">
+        <f t="shared" si="3"/>
+        <v>16.625</v>
+      </c>
+      <c r="K6" s="38">
+        <f t="shared" si="4"/>
+        <v>20.78125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -2906,19 +3357,27 @@
         <v>29.25</v>
       </c>
       <c r="G7" s="17">
-        <f t="shared" ref="G7:H7" si="4">C7*$E$7/100</f>
+        <f t="shared" ref="G7:H7" si="6">C7*$E$7/100</f>
         <v>0.15</v>
       </c>
       <c r="H7" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="I7" s="25">
         <f t="shared" si="1"/>
         <v>171.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75">
+      <c r="J7" s="38">
+        <f t="shared" si="3"/>
+        <v>72.58</v>
+      </c>
+      <c r="K7" s="38">
+        <f t="shared" si="4"/>
+        <v>108.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>22</v>
       </c>
@@ -2930,8 +3389,10 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2960,11 +3421,19 @@
         <v>5.4</v>
       </c>
       <c r="I9" s="25">
-        <f t="shared" ref="I9:I13" si="5">(B9*4+C9*4+D9*9)*E9/100</f>
+        <f t="shared" ref="I9:I13" si="7">(B9*4+C9*4+D9*9)*E9/100</f>
         <v>67.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
+      <c r="J9" s="38">
+        <f t="shared" si="3"/>
+        <v>85.309999999999988</v>
+      </c>
+      <c r="K9" s="38">
+        <f t="shared" si="4"/>
+        <v>85.309999999999988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2993,11 +3462,19 @@
         <v>0.52</v>
       </c>
       <c r="I10" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>79.239999999999981</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
+      <c r="J10" s="38">
+        <f t="shared" si="3"/>
+        <v>49.495000000000005</v>
+      </c>
+      <c r="K10" s="38">
+        <f t="shared" si="4"/>
+        <v>19.798000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -3026,11 +3503,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
+      <c r="J11" s="38">
+        <f t="shared" si="3"/>
+        <v>81.7</v>
+      </c>
+      <c r="K11" s="38">
+        <f t="shared" si="4"/>
+        <v>163.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -3059,11 +3544,19 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>186</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
+      <c r="J12" s="38">
+        <f t="shared" si="3"/>
+        <v>75.524999999999977</v>
+      </c>
+      <c r="K12" s="38">
+        <f t="shared" si="4"/>
+        <v>151.04999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -3092,11 +3585,19 @@
         <v>6.3</v>
       </c>
       <c r="I13" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>128.69999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75">
+      <c r="J13" s="38">
+        <f t="shared" si="3"/>
+        <v>69.349999999999994</v>
+      </c>
+      <c r="K13" s="38">
+        <f t="shared" si="4"/>
+        <v>62.414999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
@@ -3108,8 +3609,10 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -3130,19 +3633,27 @@
         <v>1.35</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" ref="G15:H15" si="6">C15*$E$15/100</f>
+        <f t="shared" ref="G15:H15" si="8">C15*$E$15/100</f>
         <v>109.35</v>
       </c>
       <c r="H15" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I15" s="16">
         <f t="shared" si="1"/>
         <v>442.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75">
+      <c r="J15" s="38">
+        <f t="shared" si="3"/>
+        <v>17.099999999999998</v>
+      </c>
+      <c r="K15" s="38">
+        <f t="shared" si="4"/>
+        <v>23.084999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>19</v>
       </c>
@@ -3154,8 +3665,10 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3176,19 +3689,27 @@
         <v>7.7</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" ref="G17:H17" si="7">C17*$E$17/100</f>
+        <f t="shared" ref="G17:H17" si="9">C17*$E$17/100</f>
         <v>84.7</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="1"/>
         <v>369.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75">
+      <c r="J17" s="38">
+        <f t="shared" si="3"/>
+        <v>15.2</v>
+      </c>
+      <c r="K17" s="38">
+        <f t="shared" si="4"/>
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -3209,19 +3730,27 @@
         <v>17.875</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" ref="G18:H18" si="8">C18*$E$18/100</f>
+        <f t="shared" ref="G18:H18" si="10">C18*$E$18/100</f>
         <v>0.125</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>13.75</v>
       </c>
       <c r="I18" s="16">
         <f t="shared" si="1"/>
         <v>195.75</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="18.75">
+      <c r="J18" s="38">
+        <f t="shared" si="3"/>
+        <v>70.87</v>
+      </c>
+      <c r="K18" s="38">
+        <f t="shared" si="4"/>
+        <v>88.587500000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>20</v>
       </c>
@@ -3233,8 +3762,10 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -3255,19 +3786,27 @@
         <v>31.32</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" ref="G20:H20" si="9">C20*$E$20/100</f>
+        <f t="shared" ref="G20:H20" si="11">C20*$E$20/100</f>
         <v>111.24</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22.14</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20" si="10">(B20*4+C20*4+D20*9)*E20/100</f>
+        <f t="shared" ref="I20" si="12">(B20*4+C20*4+D20*9)*E20/100</f>
         <v>769.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
+      <c r="J20" s="38">
+        <f t="shared" si="3"/>
+        <v>66.025000000000006</v>
+      </c>
+      <c r="K20" s="38">
+        <f t="shared" si="4"/>
+        <v>356.53500000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>21</v>
       </c>
@@ -3291,8 +3830,12 @@
         <f>SUM(I3:I20)</f>
         <v>3325.855</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
+      <c r="K21" s="15">
+        <f>SUM(K3:K20)</f>
+        <v>1316.9422500000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -3305,7 +3848,7 @@
         <v>528.1</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" ref="G22" si="11">G21*4</f>
+        <f t="shared" ref="G22" si="13">G21*4</f>
         <v>2173.3799999999997</v>
       </c>
       <c r="H22" s="15">
@@ -3317,7 +3860,7 @@
         <v>3325.8549999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3330,16 +3873,16 @@
         <v>15.878623692253575</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" ref="G23:H23" si="12">G22/($F$22+$G$22+$H$22)*100</f>
+        <f t="shared" ref="G23:H23" si="14">G22/($F$22+$G$22+$H$22)*100</f>
         <v>65.348008256523499</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.773368051222921</v>
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
@@ -3348,15 +3891,15 @@
         <v>2.0628906250000001</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" ref="G24:H24" si="13">G21/$A$1</f>
+        <f t="shared" ref="G24:H24" si="15">G21/$A$1</f>
         <v>8.4897656249999986</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.083984375</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3380,14 +3923,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:E20"/>
+      <selection activeCell="J1" sqref="J1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -3395,7 +3938,7 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -3423,8 +3966,14 @@
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75">
+      <c r="J1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
@@ -3436,8 +3985,10 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -3469,8 +4020,16 @@
         <f t="shared" ref="I3:I18" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>231.99</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
+      <c r="J3" s="38">
+        <f>0.95*(100-D3-C3-B3)</f>
+        <v>13.299999999999999</v>
+      </c>
+      <c r="K3" s="38">
+        <f>J3*E3/100</f>
+        <v>8.7779999999999987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -3502,8 +4061,16 @@
         <f t="shared" si="1"/>
         <v>133.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75">
+      <c r="J4" s="38">
+        <f t="shared" ref="J4:J20" si="3">0.95*(100-D4-C4-B4)</f>
+        <v>85.309999999999988</v>
+      </c>
+      <c r="K4" s="38">
+        <f t="shared" ref="K4:K20" si="4">J4*E4/100</f>
+        <v>213.27499999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>17</v>
       </c>
@@ -3515,8 +4082,10 @@
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75">
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>59</v>
       </c>
@@ -3537,19 +4106,27 @@
         <v>10.5</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" ref="G6:H6" si="3">C6*$E$6/100</f>
+        <f t="shared" ref="G6:H6" si="5">C6*$E$6/100</f>
         <v>67.5</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.5</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="1"/>
         <v>379.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
+      <c r="J6" s="38">
+        <f t="shared" si="3"/>
+        <v>40.85</v>
+      </c>
+      <c r="K6" s="38">
+        <f t="shared" si="4"/>
+        <v>61.274999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>60</v>
       </c>
@@ -3570,19 +4147,27 @@
         <v>46.5</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" ref="G7:H7" si="4">C7*$E$7/100</f>
+        <f t="shared" ref="G7:H7" si="6">C7*$E$7/100</f>
         <v>0.15</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="1"/>
         <v>429.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75">
+      <c r="J7" s="38">
+        <f t="shared" si="3"/>
+        <v>48.355000000000004</v>
+      </c>
+      <c r="K7" s="38">
+        <f t="shared" si="4"/>
+        <v>72.532500000000013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>22</v>
       </c>
@@ -3594,8 +4179,10 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75">
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -3624,11 +4211,19 @@
         <v>5.4</v>
       </c>
       <c r="I9" s="3">
-        <f t="shared" ref="I9:I13" si="5">(B9*4+C9*4+D9*9)*E9/100</f>
+        <f t="shared" ref="I9:I13" si="7">(B9*4+C9*4+D9*9)*E9/100</f>
         <v>67.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
+      <c r="J9" s="38">
+        <f t="shared" si="3"/>
+        <v>85.309999999999988</v>
+      </c>
+      <c r="K9" s="38">
+        <f t="shared" si="4"/>
+        <v>85.309999999999988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -3657,11 +4252,19 @@
         <v>0.52</v>
       </c>
       <c r="I10" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>79.239999999999981</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
+      <c r="J10" s="38">
+        <f t="shared" si="3"/>
+        <v>49.495000000000005</v>
+      </c>
+      <c r="K10" s="38">
+        <f t="shared" si="4"/>
+        <v>19.798000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -3690,11 +4293,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
+      <c r="J11" s="38">
+        <f t="shared" si="3"/>
+        <v>79.8</v>
+      </c>
+      <c r="K11" s="38">
+        <f t="shared" si="4"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -3723,11 +4334,19 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I12" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>186</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75">
+      <c r="J12" s="38">
+        <f t="shared" si="3"/>
+        <v>75.524999999999977</v>
+      </c>
+      <c r="K12" s="38">
+        <f t="shared" si="4"/>
+        <v>151.04999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -3756,11 +4375,19 @@
         <v>9</v>
       </c>
       <c r="I13" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>167.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75">
+      <c r="J13" s="38">
+        <f t="shared" si="3"/>
+        <v>62.699999999999996</v>
+      </c>
+      <c r="K13" s="38">
+        <f t="shared" si="4"/>
+        <v>56.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
@@ -3772,8 +4399,10 @@
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
       <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75">
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -3794,19 +4423,27 @@
         <v>1.4</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" ref="G15:H15" si="6">C15*$E$15/100</f>
+        <f t="shared" ref="G15:H15" si="8">C15*$E$15/100</f>
         <v>113.4</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="1"/>
         <v>459.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="18.75">
+      <c r="J15" s="38">
+        <f t="shared" si="3"/>
+        <v>17.099999999999998</v>
+      </c>
+      <c r="K15" s="38">
+        <f t="shared" si="4"/>
+        <v>23.939999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>19</v>
       </c>
@@ -3818,8 +4455,10 @@
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -3840,19 +4479,27 @@
         <v>10.5</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" ref="G17:H17" si="7">C17*$E$17/100</f>
+        <f t="shared" ref="G17:H17" si="9">C17*$E$17/100</f>
         <v>72</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="1"/>
         <v>357</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75">
+      <c r="J17" s="38">
+        <f t="shared" si="3"/>
+        <v>40.85</v>
+      </c>
+      <c r="K17" s="38">
+        <f t="shared" si="4"/>
+        <v>61.274999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -3873,19 +4520,27 @@
         <v>26.6</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" ref="G18:H18" si="8">C18*$E$18/100</f>
+        <f t="shared" ref="G18:H18" si="10">C18*$E$18/100</f>
         <v>0</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>23.6</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="1"/>
         <v>318.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="18.75">
+      <c r="J18" s="38">
+        <f t="shared" si="3"/>
+        <v>71.155000000000001</v>
+      </c>
+      <c r="K18" s="38">
+        <f t="shared" si="4"/>
+        <v>142.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +4552,10 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -3919,19 +4576,27 @@
         <v>31.32</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" ref="G20:H20" si="9">C20*$E$20/100</f>
+        <f t="shared" ref="G20:H20" si="11">C20*$E$20/100</f>
         <v>111.24</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>22.14</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" ref="I20" si="10">(B20*4+C20*4+D20*9)*E20/100</f>
+        <f t="shared" ref="I20" si="12">(B20*4+C20*4+D20*9)*E20/100</f>
         <v>769.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
+      <c r="J20" s="38">
+        <f t="shared" si="3"/>
+        <v>66.025000000000006</v>
+      </c>
+      <c r="K20" s="38">
+        <f t="shared" si="4"/>
+        <v>356.53500000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>21</v>
       </c>
@@ -3955,8 +4620,12 @@
         <f>SUM(I3:I20)</f>
         <v>3707.28</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
+      <c r="K21" s="15">
+        <f>SUM(K3:K20)</f>
+        <v>1412.1084999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -3969,7 +4638,7 @@
         <v>624.6</v>
       </c>
       <c r="G22" s="15">
-        <f t="shared" ref="G22" si="11">G21*4</f>
+        <f t="shared" ref="G22" si="13">G21*4</f>
         <v>2094.48</v>
       </c>
       <c r="H22" s="15">
@@ -3981,7 +4650,7 @@
         <v>3707.2799999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3994,16 +4663,16 @@
         <v>16.847931637211111</v>
       </c>
       <c r="G23" s="15">
-        <f t="shared" ref="G23:H23" si="12">G22/($F$22+$G$22+$H$22)*100</f>
+        <f t="shared" ref="G23:H23" si="14">G22/($F$22+$G$22+$H$22)*100</f>
         <v>56.496407069333856</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>26.65566129345504</v>
       </c>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
@@ -4012,15 +4681,15 @@
         <v>2.4398437500000001</v>
       </c>
       <c r="G24" s="21">
-        <f t="shared" ref="G24:H24" si="13">G21/$A$1</f>
+        <f t="shared" ref="G24:H24" si="15">G21/$A$1</f>
         <v>8.1815625000000001</v>
       </c>
       <c r="H24" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.715625</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4044,14 +4713,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2:T20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -4059,7 +4728,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -4087,8 +4756,14 @@
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75">
+      <c r="J1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
@@ -4100,8 +4775,10 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -4133,8 +4810,16 @@
         <f t="shared" ref="I3:I17" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>287.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
+      <c r="J3" s="38">
+        <f>0.95*(100-D3-C3-B3)</f>
+        <v>17.005000000000006</v>
+      </c>
+      <c r="K3" s="38">
+        <f>J3*E3/100</f>
+        <v>13.604000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -4166,8 +4851,16 @@
         <f t="shared" si="1"/>
         <v>161.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="J4" s="38">
+        <f t="shared" ref="J4:J19" si="3">0.95*(100-D4-C4-B4)</f>
+        <v>19.000000000000004</v>
+      </c>
+      <c r="K4" s="38">
+        <f t="shared" ref="K4:K19" si="4">J4*E4/100</f>
+        <v>9.5000000000000018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -4188,19 +4881,27 @@
         <v>0.06</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" ref="G5:H5" si="3">C5*$E$5/100</f>
+        <f t="shared" ref="G5:H5" si="5">C5*$E$5/100</f>
         <v>8.4</v>
       </c>
       <c r="H5" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.08</v>
       </c>
       <c r="I5" s="16">
         <f t="shared" si="1"/>
         <v>34.559999999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75">
+      <c r="J5" s="38">
+        <f t="shared" si="3"/>
+        <v>13.870000000000003</v>
+      </c>
+      <c r="K5" s="38">
+        <f t="shared" si="4"/>
+        <v>1.3870000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>17</v>
       </c>
@@ -4212,8 +4913,10 @@
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -4234,19 +4937,27 @@
         <v>12.5</v>
       </c>
       <c r="G7" s="12">
-        <f t="shared" ref="G7:H7" si="4">C7*$E$7/100</f>
+        <f t="shared" ref="G7:H7" si="6">C7*$E$7/100</f>
         <v>88.75</v>
       </c>
       <c r="H7" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.875</v>
       </c>
       <c r="I7" s="16">
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75">
+      <c r="J7" s="38">
+        <f t="shared" si="3"/>
+        <v>16.625</v>
+      </c>
+      <c r="K7" s="38">
+        <f t="shared" si="4"/>
+        <v>20.78125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -4267,19 +4978,27 @@
         <v>21.45</v>
       </c>
       <c r="G8" s="17">
-        <f t="shared" ref="G8:H8" si="5">C8*$E$8/100</f>
+        <f t="shared" ref="G8:H8" si="7">C8*$E$8/100</f>
         <v>0.15</v>
       </c>
       <c r="H8" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16.5</v>
       </c>
       <c r="I8" s="25">
         <f t="shared" si="1"/>
         <v>234.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75">
+      <c r="J8" s="38">
+        <f t="shared" si="3"/>
+        <v>70.87</v>
+      </c>
+      <c r="K8" s="38">
+        <f t="shared" si="4"/>
+        <v>106.30500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>62</v>
       </c>
@@ -4291,8 +5010,10 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -4321,11 +5042,19 @@
         <v>10.23</v>
       </c>
       <c r="I10" s="25">
-        <f t="shared" ref="I10:I12" si="6">(B10*4+C10*4+D10*9)*E10/100</f>
+        <f t="shared" ref="I10:I12" si="8">(B10*4+C10*4+D10*9)*E10/100</f>
         <v>144.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
+      <c r="J10" s="38">
+        <f t="shared" si="3"/>
+        <v>87.875</v>
+      </c>
+      <c r="K10" s="38">
+        <f t="shared" si="4"/>
+        <v>272.41250000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -4354,11 +5083,19 @@
         <v>0.1</v>
       </c>
       <c r="I11" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>336.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
+      <c r="J11" s="38">
+        <f t="shared" si="3"/>
+        <v>15.105000000000004</v>
+      </c>
+      <c r="K11" s="38">
+        <f t="shared" si="4"/>
+        <v>15.105000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -4387,11 +5124,19 @@
         <v>13.75</v>
       </c>
       <c r="I12" s="16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>195.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75">
+      <c r="J12" s="38">
+        <f t="shared" si="3"/>
+        <v>70.87</v>
+      </c>
+      <c r="K12" s="38">
+        <f t="shared" si="4"/>
+        <v>88.587500000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>18</v>
       </c>
@@ -4403,8 +5148,10 @@
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75">
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -4425,19 +5172,27 @@
         <v>1.35</v>
       </c>
       <c r="G14" s="12">
-        <f t="shared" ref="G14:H14" si="7">C14*$E$14/100</f>
+        <f t="shared" ref="G14:H14" si="9">C14*$E$14/100</f>
         <v>109.35</v>
       </c>
       <c r="H14" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I14" s="16">
         <f t="shared" si="1"/>
         <v>442.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75">
+      <c r="J14" s="38">
+        <f t="shared" si="3"/>
+        <v>17.099999999999998</v>
+      </c>
+      <c r="K14" s="38">
+        <f t="shared" si="4"/>
+        <v>23.084999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>19</v>
       </c>
@@ -4449,8 +5204,10 @@
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
       <c r="I15" s="35"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75">
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -4471,19 +5228,27 @@
         <v>7.7</v>
       </c>
       <c r="G16" s="12">
-        <f t="shared" ref="G16:H16" si="8">C16*$E$16/100</f>
+        <f t="shared" ref="G16:H16" si="10">C16*$E$16/100</f>
         <v>84.7</v>
       </c>
       <c r="H16" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I16" s="16">
         <f t="shared" si="1"/>
         <v>369.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
+      <c r="J16" s="38">
+        <f t="shared" si="3"/>
+        <v>15.2</v>
+      </c>
+      <c r="K16" s="38">
+        <f t="shared" si="4"/>
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -4504,19 +5269,27 @@
         <v>17.875</v>
       </c>
       <c r="G17" s="12">
-        <f t="shared" ref="G17:H17" si="9">C17*$E$17/100</f>
+        <f t="shared" ref="G17:H17" si="11">C17*$E$17/100</f>
         <v>0.125</v>
       </c>
       <c r="H17" s="12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13.75</v>
       </c>
       <c r="I17" s="16">
         <f t="shared" si="1"/>
         <v>195.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="18.75">
+      <c r="J17" s="38">
+        <f t="shared" si="3"/>
+        <v>70.87</v>
+      </c>
+      <c r="K17" s="38">
+        <f t="shared" si="4"/>
+        <v>88.587500000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>20</v>
       </c>
@@ -4528,8 +5301,10 @@
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75">
+      <c r="J18" s="38"/>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
@@ -4550,19 +5325,27 @@
         <v>33</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" ref="G19:H19" si="10">C19*$E$19/100</f>
+        <f t="shared" ref="G19:H19" si="12">C19*$E$19/100</f>
         <v>3.3</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>15.4</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" ref="I19" si="11">(B19*4+C19*4+D19*9)*E19/100</f>
+        <f t="shared" ref="I19" si="13">(B19*4+C19*4+D19*9)*E19/100</f>
         <v>283.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
+      <c r="J19" s="38">
+        <f t="shared" si="3"/>
+        <v>72.674999999999997</v>
+      </c>
+      <c r="K19" s="38">
+        <f t="shared" si="4"/>
+        <v>159.88499999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>21</v>
       </c>
@@ -4586,8 +5369,12 @@
         <f>SUM(I3:I19)</f>
         <v>3108.9550000000004</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
+      <c r="K20" s="15">
+        <f>SUM(K3:K19)</f>
+        <v>815.9597500000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -4600,7 +5387,7 @@
         <v>530.87999999999988</v>
       </c>
       <c r="G21" s="15">
-        <f t="shared" ref="G21" si="12">G20*4</f>
+        <f t="shared" ref="G21" si="14">G20*4</f>
         <v>1885.8400000000001</v>
       </c>
       <c r="H21" s="15">
@@ -4612,7 +5399,7 @@
         <v>3108.9550000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -4625,16 +5412,16 @@
         <v>17.075834162926121</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" ref="G22:H22" si="13">G21/($F$21+$G$21+$H$21)*100</f>
+        <f t="shared" ref="G22:H22" si="15">G21/($F$21+$G$21+$H$21)*100</f>
         <v>60.658324099255211</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>22.265841737818654</v>
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E23" s="6" t="s">
         <v>54</v>
       </c>
@@ -4643,15 +5430,15 @@
         <v>2.0737499999999995</v>
       </c>
       <c r="G23" s="21">
-        <f t="shared" ref="G23:H23" si="14">G20/$A$1</f>
+        <f t="shared" ref="G23:H23" si="16">G20/$A$1</f>
         <v>7.3665625000000006</v>
       </c>
       <c r="H23" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.2017968750000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4675,14 +5462,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -4690,7 +5477,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -4718,8 +5505,14 @@
       <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75">
+      <c r="J1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>16</v>
       </c>
@@ -4731,8 +5524,10 @@
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -4761,11 +5556,19 @@
         <v>4.88</v>
       </c>
       <c r="I3" s="16">
-        <f t="shared" ref="I3:I17" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
+        <f t="shared" ref="I3:I22" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>287.12</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
+      <c r="J3" s="12">
+        <f>0.95*(100-D3-C3-B3)</f>
+        <v>17.005000000000006</v>
+      </c>
+      <c r="K3" s="12">
+        <f>J3*E3/100</f>
+        <v>13.604000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -4797,8 +5600,16 @@
         <f t="shared" si="1"/>
         <v>161.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75">
+      <c r="J4" s="12">
+        <f t="shared" ref="J4:J25" si="3">0.95*(100-D4-C4-B4)</f>
+        <v>19.000000000000004</v>
+      </c>
+      <c r="K4" s="12">
+        <f t="shared" ref="K4:K25" si="4">J4*E4/100</f>
+        <v>9.5000000000000018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -4815,511 +5626,851 @@
         <v>10</v>
       </c>
       <c r="F5" s="17">
-        <f>B5*$E$5/100</f>
+        <f>B5*$E5/100</f>
         <v>0.06</v>
       </c>
       <c r="G5" s="17">
-        <f t="shared" ref="G5:H5" si="3">C5*$E$5/100</f>
+        <f t="shared" ref="G5:H5" si="5">C5*$E$5/100</f>
         <v>8.4</v>
       </c>
       <c r="H5" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.08</v>
       </c>
       <c r="I5" s="16">
         <f t="shared" si="1"/>
         <v>34.559999999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75">
-      <c r="A6" s="35" t="s">
+      <c r="J5" s="12">
+        <f t="shared" si="3"/>
+        <v>13.870000000000003</v>
+      </c>
+      <c r="K5" s="12">
+        <f t="shared" si="4"/>
+        <v>1.3870000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="40">
+        <v>0</v>
+      </c>
+      <c r="C6" s="40">
+        <v>0</v>
+      </c>
+      <c r="D6" s="40">
+        <v>0</v>
+      </c>
+      <c r="E6" s="40">
+        <v>250</v>
+      </c>
+      <c r="F6" s="41">
+        <f>B6*$E6/100</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="41">
+        <f t="shared" ref="G6" si="6">C6*$E$5/100</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="41">
+        <f t="shared" ref="H6" si="7">D6*$E$5/100</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="42">
+        <f t="shared" ref="I6:I7" si="8">(B6*4+C6*4+D6*9)*E6/100</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="41">
+        <f t="shared" ref="J6:J7" si="9">0.95*(100-D6-C6-B6)</f>
+        <v>95</v>
+      </c>
+      <c r="K6" s="41">
+        <f t="shared" ref="K6:K7" si="10">J6*E6/100</f>
+        <v>237.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>150</v>
+      </c>
+      <c r="F7" s="17">
+        <f>B7*$E7/100</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" ref="G7:H7" si="11">C7*$E7/100</f>
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="9"/>
+        <v>94.05</v>
+      </c>
+      <c r="K7" s="12">
+        <f t="shared" si="10"/>
+        <v>141.07499999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="3" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B9" s="4">
         <v>10</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C9" s="5">
         <v>71</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D9" s="5">
         <v>1.5</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E9" s="5">
         <v>125</v>
       </c>
-      <c r="F7" s="17">
-        <f>B7*$E$7/100</f>
+      <c r="F9" s="17">
+        <f>B9*$E$9/100</f>
         <v>12.5</v>
       </c>
-      <c r="G7" s="12">
-        <f t="shared" ref="G7:H7" si="4">C7*$E$7/100</f>
+      <c r="G9" s="12">
+        <f t="shared" ref="G9:H9" si="12">C9*$E$9/100</f>
         <v>88.75</v>
       </c>
-      <c r="H7" s="12">
-        <f t="shared" si="4"/>
+      <c r="H9" s="12">
+        <f t="shared" si="12"/>
         <v>1.875</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I9" s="16">
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="33" t="s">
+      <c r="J9" s="12">
+        <f t="shared" si="3"/>
+        <v>16.625</v>
+      </c>
+      <c r="K9" s="12">
+        <f t="shared" si="4"/>
+        <v>20.78125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B10" s="4">
         <v>14.3</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C10" s="5">
         <v>0.1</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D10" s="5">
         <v>11</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E10" s="5">
         <v>150</v>
       </c>
-      <c r="F8" s="17">
-        <f>B8*$E$8/100</f>
+      <c r="F10" s="17">
+        <f>B10*$E$10/100</f>
         <v>21.45</v>
       </c>
-      <c r="G8" s="17">
-        <f t="shared" ref="G8:H8" si="5">C8*$E$8/100</f>
+      <c r="G10" s="17">
+        <f t="shared" ref="G10:H10" si="13">C10*$E$10/100</f>
         <v>0.15</v>
       </c>
-      <c r="H8" s="17">
-        <f t="shared" si="5"/>
+      <c r="H10" s="17">
+        <f t="shared" si="13"/>
         <v>16.5</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I10" s="25">
         <f t="shared" si="1"/>
         <v>234.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75">
-      <c r="A9" s="35" t="s">
+      <c r="J10" s="12">
+        <f t="shared" si="3"/>
+        <v>70.87</v>
+      </c>
+      <c r="K10" s="12">
+        <f t="shared" si="4"/>
+        <v>106.30500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="40">
+        <v>0</v>
+      </c>
+      <c r="C11" s="40">
+        <v>0</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0</v>
+      </c>
+      <c r="E11" s="40">
+        <v>100</v>
+      </c>
+      <c r="F11" s="41">
+        <f>B11*$E$10/100</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="41">
+        <f t="shared" ref="G11" si="14">C11*$E$10/100</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="41">
+        <f t="shared" ref="H11" si="15">D11*$E$10/100</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="42">
+        <f t="shared" ref="I11" si="16">(B11*4+C11*4+D11*9)*E11/100</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="41">
+        <f t="shared" ref="J11" si="17">0.95*(100-D11-C11-B11)</f>
+        <v>95</v>
+      </c>
+      <c r="K11" s="41">
+        <f t="shared" ref="K11" si="18">J11*E11/100</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="3" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B13" s="4">
         <v>0.8</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C13" s="5">
         <v>3.4</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D13" s="5">
         <v>3.3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E13" s="5">
         <v>310</v>
       </c>
-      <c r="F10" s="17">
-        <f>B10*$E$10/100</f>
+      <c r="F13" s="17">
+        <f>B13*$E$13/100</f>
         <v>2.48</v>
       </c>
-      <c r="G10" s="17">
-        <f>C10*$E$10/100</f>
+      <c r="G13" s="17">
+        <f>C13*$E$13/100</f>
         <v>10.54</v>
       </c>
-      <c r="H10" s="17">
-        <f>D10*$E$10/100</f>
+      <c r="H13" s="17">
+        <f>D13*$E$13/100</f>
         <v>10.23</v>
       </c>
-      <c r="I10" s="25">
-        <f t="shared" ref="I10:I12" si="6">(B10*4+C10*4+D10*9)*E10/100</f>
+      <c r="I13" s="25">
+        <f t="shared" ref="I13" si="19">(B13*4+C13*4+D13*9)*E13/100</f>
         <v>144.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="3" t="s">
+      <c r="J13" s="12">
+        <f t="shared" si="3"/>
+        <v>87.875</v>
+      </c>
+      <c r="K13" s="12">
+        <f t="shared" si="4"/>
+        <v>272.41250000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B14" s="4">
         <v>7</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C14" s="5">
         <v>77</v>
       </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5">
         <v>100</v>
-      </c>
-      <c r="F11" s="17">
-        <f>B11*$E$11/100</f>
-        <v>7</v>
-      </c>
-      <c r="G11" s="12">
-        <f>C11*$E$11/100</f>
-        <v>77</v>
-      </c>
-      <c r="H11" s="12">
-        <f>D11*$E$11/100</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <f t="shared" si="6"/>
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="4">
-        <v>19.5</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="5">
-        <v>4</v>
-      </c>
-      <c r="E12" s="5">
-        <v>150</v>
-      </c>
-      <c r="F12" s="12">
-        <f>B12*$E$12/100</f>
-        <v>29.25</v>
-      </c>
-      <c r="G12" s="12">
-        <f>C12*$E$12/100</f>
-        <v>0.15</v>
-      </c>
-      <c r="H12" s="12">
-        <f>D12*$E$12/100</f>
-        <v>6</v>
-      </c>
-      <c r="I12" s="16">
-        <f t="shared" si="6"/>
-        <v>171.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75">
-      <c r="A13" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
-        <v>81</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>135</v>
       </c>
       <c r="F14" s="17">
         <f>B14*$E$14/100</f>
+        <v>7</v>
+      </c>
+      <c r="G14" s="12">
+        <f>C14*$E$14/100</f>
+        <v>77</v>
+      </c>
+      <c r="H14" s="12">
+        <f>D14*$E$14/100</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="25">
+        <f t="shared" ref="I14:I16" si="20">(B14*4+C14*4+D14*9)*E14/100</f>
+        <v>336</v>
+      </c>
+      <c r="J14" s="12">
+        <f t="shared" ref="J14:J16" si="21">0.95*(100-D14-C14-B14)</f>
+        <v>15.2</v>
+      </c>
+      <c r="K14" s="12">
+        <f t="shared" ref="K14:K16" si="22">J14*E14/100</f>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5">
+        <v>150</v>
+      </c>
+      <c r="F15" s="12">
+        <f>B15*$E$15/100</f>
+        <v>29.25</v>
+      </c>
+      <c r="G15" s="12">
+        <f>C15*$E$15/100</f>
+        <v>0.15</v>
+      </c>
+      <c r="H15" s="12">
+        <f>D15*$E$15/100</f>
+        <v>6</v>
+      </c>
+      <c r="I15" s="25">
+        <f t="shared" si="20"/>
+        <v>171.6</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="21"/>
+        <v>72.58</v>
+      </c>
+      <c r="K15" s="12">
+        <f t="shared" si="22"/>
+        <v>108.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="40">
+        <v>0</v>
+      </c>
+      <c r="C16" s="40">
+        <v>0</v>
+      </c>
+      <c r="D16" s="40">
+        <v>0</v>
+      </c>
+      <c r="E16" s="40">
+        <v>200</v>
+      </c>
+      <c r="F16" s="41">
+        <f>B16*$E$15/100</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="41">
+        <f>C16*$E$15/100</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="41">
+        <f>D16*$E$15/100</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="42">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="41">
+        <f t="shared" si="21"/>
+        <v>95</v>
+      </c>
+      <c r="K16" s="41">
+        <f t="shared" si="22"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>81</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>135</v>
+      </c>
+      <c r="F18" s="17">
+        <f>B18*$E$18/100</f>
         <v>1.35</v>
       </c>
-      <c r="G14" s="12">
-        <f t="shared" ref="G14:H14" si="7">C14*$E$14/100</f>
+      <c r="G18" s="12">
+        <f t="shared" ref="G18:H18" si="23">C18*$E$18/100</f>
         <v>109.35</v>
       </c>
-      <c r="H14" s="12">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="16">
+      <c r="H18" s="12">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="16">
         <f t="shared" si="1"/>
         <v>442.8</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75">
-      <c r="A15" s="35" t="s">
+      <c r="J18" s="12">
+        <f t="shared" si="3"/>
+        <v>17.099999999999998</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="4"/>
+        <v>23.084999999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <v>350</v>
+      </c>
+      <c r="F19" s="17">
+        <f>B19*$E$18/100</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" ref="G19" si="24">C19*$E$18/100</f>
+        <v>1.35</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" ref="H19" si="25">D19*$E$18/100</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="J19" s="12">
+        <f t="shared" si="3"/>
+        <v>94.05</v>
+      </c>
+      <c r="K19" s="12">
+        <f t="shared" si="4"/>
+        <v>329.17500000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="3" t="s">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B21" s="4">
         <v>7</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C21" s="5">
         <v>77</v>
       </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="5">
         <v>110</v>
       </c>
-      <c r="F16" s="12">
-        <f>B16*$E$16/100</f>
+      <c r="F21" s="12">
+        <f>B21*$E$21/100</f>
         <v>7.7</v>
       </c>
-      <c r="G16" s="12">
-        <f t="shared" ref="G16:H16" si="8">C16*$E$16/100</f>
+      <c r="G21" s="12">
+        <f t="shared" ref="G21:H21" si="26">C21*$E$21/100</f>
         <v>84.7</v>
       </c>
-      <c r="H16" s="12">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="16">
+      <c r="H21" s="12">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="16">
         <f t="shared" si="1"/>
         <v>369.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="3" t="s">
+      <c r="J21" s="12">
+        <f t="shared" si="3"/>
+        <v>15.2</v>
+      </c>
+      <c r="K21" s="12">
+        <f t="shared" si="4"/>
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B22" s="4">
         <v>19.5</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C22" s="5">
         <v>0.1</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D22" s="5">
         <v>4</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E22" s="5">
         <v>150</v>
       </c>
-      <c r="F17" s="12">
-        <f>B17*$E$17/100</f>
+      <c r="F22" s="12">
+        <f>B22*$E$22/100</f>
         <v>29.25</v>
       </c>
-      <c r="G17" s="12">
-        <f t="shared" ref="G17:H17" si="9">C17*$E$17/100</f>
+      <c r="G22" s="12">
+        <f t="shared" ref="G22:H22" si="27">C22*$E$22/100</f>
         <v>0.15</v>
       </c>
-      <c r="H17" s="12">
-        <f t="shared" si="9"/>
+      <c r="H22" s="12">
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I22" s="16">
         <f t="shared" si="1"/>
         <v>171.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="18.75">
-      <c r="A18" s="35" t="s">
+      <c r="J22" s="12">
+        <f t="shared" si="3"/>
+        <v>72.58</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="4"/>
+        <v>108.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="40">
+        <v>0</v>
+      </c>
+      <c r="C23" s="40">
+        <v>0</v>
+      </c>
+      <c r="D23" s="40">
+        <v>0</v>
+      </c>
+      <c r="E23" s="40">
+        <v>200</v>
+      </c>
+      <c r="F23" s="41">
+        <f>B23*$E$22/100</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="41">
+        <f t="shared" ref="G23" si="28">C23*$E$22/100</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="41">
+        <f t="shared" ref="H23" si="29">D23*$E$22/100</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="42">
+        <f t="shared" ref="I23" si="30">(B23*4+C23*4+D23*9)*E23/100</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="41">
+        <f t="shared" ref="J23" si="31">0.95*(100-D23-C23-B23)</f>
+        <v>95</v>
+      </c>
+      <c r="K23" s="41">
+        <f t="shared" ref="K23" si="32">J23*E23/100</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="3" t="s">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B25" s="4">
         <v>5.8</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C25" s="5">
         <v>20.6</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D25" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E25" s="5">
         <v>540</v>
       </c>
-      <c r="F19" s="5">
-        <f>B19*$E$19/100</f>
+      <c r="F25" s="5">
+        <f>B25*$E$25/100</f>
         <v>31.32</v>
       </c>
-      <c r="G19" s="5">
-        <f t="shared" ref="G19:H19" si="10">C19*$E$19/100</f>
+      <c r="G25" s="5">
+        <f t="shared" ref="G25:H25" si="33">C25*$E$25/100</f>
         <v>111.24</v>
       </c>
-      <c r="H19" s="5">
-        <f t="shared" si="10"/>
+      <c r="H25" s="5">
+        <f t="shared" si="33"/>
         <v>22.14</v>
       </c>
-      <c r="I19" s="3">
-        <f t="shared" ref="I19" si="11">(B19*4+C19*4+D19*9)*E19/100</f>
+      <c r="I25" s="3">
+        <f t="shared" ref="I25" si="34">(B25*4+C25*4+D25*9)*E25/100</f>
         <v>769.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="34" t="s">
+      <c r="J25" s="12">
+        <f t="shared" si="3"/>
+        <v>66.025000000000006</v>
+      </c>
+      <c r="K25" s="12">
+        <f t="shared" si="4"/>
+        <v>356.53500000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="15">
-        <f>SUM(F3:F19)</f>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="15">
+        <f>SUM(F3:F25)</f>
         <v>153.79</v>
       </c>
-      <c r="G20" s="15">
-        <f>SUM(G3:G19)</f>
-        <v>579.44999999999993</v>
-      </c>
-      <c r="H20" s="15">
-        <f>SUM(H3:H19)</f>
+      <c r="G26" s="15">
+        <f>SUM(G3:G25)</f>
+        <v>582.29999999999995</v>
+      </c>
+      <c r="H26" s="15">
+        <f>SUM(H3:H25)</f>
         <v>68.055000000000007</v>
       </c>
-      <c r="I20" s="18">
-        <f>SUM(I3:I19)</f>
-        <v>3545.4549999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15">
-        <f>F20*4</f>
+      <c r="I26" s="18">
+        <f>SUM(I3:I25)</f>
+        <v>3565.4549999999999</v>
+      </c>
+      <c r="K26" s="15">
+        <f>SUM(K3:K25)</f>
+        <v>2236.0197499999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="15">
+        <f>F26*4</f>
         <v>615.16</v>
       </c>
-      <c r="G21" s="15">
-        <f t="shared" ref="G21" si="12">G20*4</f>
-        <v>2317.7999999999997</v>
-      </c>
-      <c r="H21" s="15">
-        <f>H20*9</f>
+      <c r="G27" s="15">
+        <f t="shared" ref="G27" si="35">G26*4</f>
+        <v>2329.1999999999998</v>
+      </c>
+      <c r="H27" s="15">
+        <f>H26*9</f>
         <v>612.49500000000012</v>
       </c>
-      <c r="I21" s="18">
-        <f>SUM(F21:H21)</f>
-        <v>3545.4549999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="10"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="6" t="s">
+      <c r="I27" s="18">
+        <f>SUM(F27:H27)</f>
+        <v>3556.8549999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="9">
-        <f>F21/($F$21+$G$21+$H$21)*100</f>
-        <v>17.350664442222509</v>
-      </c>
-      <c r="G22" s="9">
-        <f t="shared" ref="G22:H22" si="13">G21/($F$21+$G$21+$H$21)*100</f>
-        <v>65.373837772584892</v>
-      </c>
-      <c r="H22" s="9">
-        <f t="shared" si="13"/>
-        <v>17.275497785192595</v>
-      </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="E23" s="6" t="s">
+      <c r="F28" s="9">
+        <f>F27/($F$27+$G$27+$H$27)*100</f>
+        <v>17.295054198161015</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" ref="G28:H28" si="36">G27/($F$27+$G$27+$H$27)*100</f>
+        <v>65.484817345660701</v>
+      </c>
+      <c r="H28" s="9">
+        <f t="shared" si="36"/>
+        <v>17.220128456178287</v>
+      </c>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F23" s="21">
-        <f>F20/$A$1</f>
+      <c r="F29" s="21">
+        <f>F26/$A$1</f>
         <v>2.4029687499999999</v>
       </c>
-      <c r="G23" s="21">
-        <f t="shared" ref="G23:H23" si="14">G20/$A$1</f>
-        <v>9.0539062499999989</v>
-      </c>
-      <c r="H23" s="21">
-        <f t="shared" si="14"/>
+      <c r="G29" s="21">
+        <f t="shared" ref="G29:H29" si="37">G26/$A$1</f>
+        <v>9.0984374999999993</v>
+      </c>
+      <c r="H29" s="21">
+        <f t="shared" si="37"/>
         <v>1.0633593750000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A26:E26"/>
     <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
       <c r="B1" s="29" t="s">
         <v>34</v>
@@ -5332,7 +6483,7 @@
       </c>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>31</v>
       </c>
@@ -5349,7 +6500,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
@@ -5366,7 +6517,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>32</v>
       </c>
@@ -5383,7 +6534,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>33</v>
       </c>
@@ -5400,7 +6551,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>40</v>
       </c>
@@ -5417,7 +6568,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>9</v>
       </c>
@@ -5434,7 +6585,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
@@ -5451,7 +6602,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>27</v>
       </c>
@@ -5468,7 +6619,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>12</v>
       </c>
@@ -5485,7 +6636,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>29</v>
       </c>
@@ -5502,7 +6653,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>24</v>
       </c>
@@ -5519,7 +6670,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>55</v>
       </c>
@@ -5536,7 +6687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>66</v>
       </c>
@@ -5553,7 +6704,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>51</v>
       </c>
@@ -5570,7 +6721,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>60</v>
       </c>
@@ -5587,7 +6738,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>61</v>
       </c>
@@ -5604,7 +6755,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>58</v>
       </c>
@@ -5621,7 +6772,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>45</v>
       </c>
@@ -5638,7 +6789,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>46</v>
       </c>
@@ -5655,7 +6806,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75">
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
         <v>67</v>
       </c>
@@ -5664,7 +6815,7 @@
         <v>43.969999999999992</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75">
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>47</v>
       </c>
@@ -5672,7 +6823,7 @@
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
         <v>58</v>
       </c>
@@ -5683,7 +6834,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>45</v>
       </c>
@@ -5694,7 +6845,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
         <v>46</v>
       </c>
@@ -5705,7 +6856,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>48</v>
       </c>
@@ -5716,7 +6867,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="28" t="s">
         <v>49</v>
@@ -5726,7 +6877,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75">
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="28" t="s">
         <v>50</v>

--- a/ratsiony.xlsx
+++ b/ratsiony.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="-135" windowWidth="18540" windowHeight="6690" activeTab="5"/>
+    <workbookView xWindow="165" yWindow="-135" windowWidth="18540" windowHeight="6690" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="пн" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="вс" sheetId="11" r:id="rId7"/>
     <sheet name="неделя" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -254,11 +254,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,15 +438,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -459,6 +450,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -548,7 +548,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -583,7 +582,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -759,14 +757,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -776,7 +774,7 @@
     <col min="12" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -811,22 +809,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:11" ht="18.75">
+      <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -858,16 +856,16 @@
         <f t="shared" ref="I3:I18" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>231.99</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="35">
         <f>0.95*(100-D3-C3-B3)</f>
         <v>13.299999999999999</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K3" s="35">
         <f>J3*E3/100</f>
         <v>8.7779999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -899,31 +897,31 @@
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="35">
         <f>0.95*(100-D4-C4-B4)</f>
         <v>84.644999999999996</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="35">
         <f t="shared" ref="K4:K20" si="3">J4*E4/100</f>
         <v>211.61250000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:11" ht="18.75">
+      <c r="A5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>69</v>
       </c>
@@ -955,16 +953,16 @@
         <f t="shared" si="1"/>
         <v>317.5</v>
       </c>
-      <c r="J6" s="38">
-        <f t="shared" ref="J5:J21" si="5">0.95*(100-D6-C6-B6)</f>
+      <c r="J6" s="35">
+        <f t="shared" ref="J6:J20" si="5">0.95*(100-D6-C6-B6)</f>
         <v>21.375</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="35">
         <f t="shared" si="3"/>
         <v>21.375</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -996,31 +994,31 @@
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="35">
         <f t="shared" si="5"/>
         <v>67.45</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="35">
         <f t="shared" si="3"/>
         <v>101.175</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:11" ht="18.75">
+      <c r="A8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1052,16 +1050,16 @@
         <f t="shared" ref="I9:I13" si="7">(B9*4+C9*4+D9*9)*E9/100</f>
         <v>67.8</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="35">
         <f t="shared" si="5"/>
         <v>85.309999999999988</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="35">
         <f t="shared" si="3"/>
         <v>85.309999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1093,16 +1091,16 @@
         <f t="shared" si="7"/>
         <v>79.239999999999981</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="35">
         <f t="shared" si="5"/>
         <v>49.495000000000005</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="35">
         <f t="shared" si="3"/>
         <v>19.798000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1134,16 +1132,16 @@
         <f t="shared" si="7"/>
         <v>112</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="35">
         <f t="shared" si="5"/>
         <v>81.7</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="35">
         <f t="shared" si="3"/>
         <v>163.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1175,16 +1173,16 @@
         <f t="shared" si="7"/>
         <v>186</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="35">
         <f t="shared" si="5"/>
         <v>75.524999999999977</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="35">
         <f t="shared" si="3"/>
         <v>151.04999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1216,31 +1214,31 @@
         <f t="shared" si="7"/>
         <v>128.69999999999999</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="35">
         <f t="shared" si="5"/>
         <v>69.349999999999994</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="35">
         <f t="shared" si="3"/>
         <v>62.414999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:11" ht="18.75">
+      <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1272,31 +1270,31 @@
         <f t="shared" si="1"/>
         <v>464.8</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="35">
         <f t="shared" si="5"/>
         <v>16.149999999999999</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="35">
         <f t="shared" si="3"/>
         <v>22.61</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:11" ht="18.75">
+      <c r="A16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1328,16 +1326,16 @@
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="35">
         <f t="shared" si="5"/>
         <v>16.150000000000006</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="35">
         <f t="shared" si="3"/>
         <v>20.187500000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1369,31 +1367,31 @@
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="35">
         <f t="shared" si="5"/>
         <v>67.45</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="35">
         <f t="shared" si="3"/>
         <v>67.45</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:11" ht="18.75">
+      <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1425,23 +1423,23 @@
         <f t="shared" ref="I20" si="12">(B20*4+C20*4+D20*9)*E20/100</f>
         <v>769.5</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="35">
         <f t="shared" si="5"/>
         <v>66.025000000000006</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="35">
         <f t="shared" si="3"/>
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="15">
         <f>SUM(F3:F20)</f>
         <v>131.75</v>
@@ -1458,13 +1456,13 @@
         <f>SUM(I3:I20)</f>
         <v>3418.4049999999997</v>
       </c>
-      <c r="J21" s="37"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="15">
         <f>SUM(K3:K20)</f>
         <v>1291.6959999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -1489,7 +1487,7 @@
         <v>3418.4049999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1511,7 +1509,7 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
@@ -1528,7 +1526,7 @@
         <v>1.416015625</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1553,14 +1551,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -1568,7 +1566,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -1603,22 +1601,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:11" ht="18.75">
+      <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -1650,16 +1648,16 @@
         <f t="shared" ref="I3:I18" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>231.99</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="35">
         <f>0.95*(100-D3-C3-B3)</f>
         <v>13.299999999999999</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K3" s="35">
         <f>J3*E3/100</f>
         <v>8.7779999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -1691,31 +1689,31 @@
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="35">
         <f t="shared" ref="J4:J20" si="3">0.95*(100-D4-C4-B4)</f>
         <v>84.644999999999996</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="35">
         <f t="shared" ref="K4:K20" si="4">J4*E4/100</f>
         <v>211.61250000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:11" ht="18.75">
+      <c r="A5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1747,16 +1745,16 @@
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="35">
         <f t="shared" si="3"/>
         <v>16.625</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="35">
         <f t="shared" si="4"/>
         <v>20.78125</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -1788,29 +1786,29 @@
         <f t="shared" si="1"/>
         <v>192.4</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="35">
         <f t="shared" si="3"/>
         <v>68.305000000000007</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="35">
         <f t="shared" si="4"/>
         <v>68.305000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="18.75">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1842,16 +1840,16 @@
         <f t="shared" ref="I9:I13" si="7">(B9*4+C9*4+D9*9)*E9/100</f>
         <v>67.8</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="35">
         <f t="shared" si="3"/>
         <v>85.309999999999988</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="35">
         <f t="shared" si="4"/>
         <v>85.309999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1883,16 +1881,16 @@
         <f t="shared" si="7"/>
         <v>79.239999999999981</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="35">
         <f t="shared" si="3"/>
         <v>49.495000000000005</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="35">
         <f t="shared" si="4"/>
         <v>19.798000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1924,16 +1922,16 @@
         <f t="shared" si="7"/>
         <v>112</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="35">
         <f t="shared" si="3"/>
         <v>81.7</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="35">
         <f t="shared" si="4"/>
         <v>163.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1965,16 +1963,16 @@
         <f t="shared" si="7"/>
         <v>186</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="35">
         <f t="shared" si="3"/>
         <v>75.524999999999977</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="35">
         <f t="shared" si="4"/>
         <v>151.04999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2006,29 +2004,29 @@
         <f t="shared" si="7"/>
         <v>128.69999999999999</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="35">
         <f t="shared" si="3"/>
         <v>69.349999999999994</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="35">
         <f t="shared" si="4"/>
         <v>62.414999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="18.75">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -2060,29 +2058,29 @@
         <f t="shared" si="1"/>
         <v>442.8</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="35">
         <f t="shared" si="3"/>
         <v>17.099999999999998</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="35">
         <f t="shared" si="4"/>
         <v>23.084999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="18.75">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -2114,16 +2112,16 @@
         <f t="shared" si="1"/>
         <v>369.6</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="35">
         <f t="shared" si="3"/>
         <v>15.2</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="35">
         <f t="shared" si="4"/>
         <v>16.72</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>68</v>
       </c>
@@ -2155,31 +2153,31 @@
         <f t="shared" si="1"/>
         <v>288.60000000000002</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="35">
         <f t="shared" si="3"/>
         <v>68.305000000000007</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="35">
         <f t="shared" si="4"/>
         <v>102.45750000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:11" ht="18.75">
+      <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -2211,23 +2209,23 @@
         <f t="shared" ref="I20" si="12">(B20*4+C20*4+D20*9)*E20/100</f>
         <v>769.5</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="35">
         <f t="shared" si="3"/>
         <v>66.025000000000006</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="35">
         <f t="shared" si="4"/>
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="15">
         <f>SUM(F3:F20)</f>
         <v>114.9</v>
@@ -2249,7 +2247,7 @@
         <v>1290.2472500000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -2274,7 +2272,7 @@
         <v>3439.5049999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2296,7 +2294,7 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
@@ -2313,7 +2311,7 @@
         <v>1.400390625</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2337,14 +2335,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -2352,7 +2350,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -2387,22 +2385,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:11" ht="18.75">
+      <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -2434,16 +2432,16 @@
         <f t="shared" ref="I3:I18" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>231.99</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="35">
         <f>0.95*(100-D3-C3-B3)</f>
         <v>13.299999999999999</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K3" s="35">
         <f>J3*E3/100</f>
         <v>8.7779999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -2475,31 +2473,31 @@
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="35">
         <f t="shared" ref="J4:J20" si="3">0.95*(100-D4-C4-B4)</f>
         <v>84.644999999999996</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="35">
         <f t="shared" ref="K4:K20" si="4">J4*E4/100</f>
         <v>211.61250000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:11" ht="18.75">
+      <c r="A5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2531,16 +2529,16 @@
         <f t="shared" si="1"/>
         <v>336</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="35">
         <f t="shared" si="3"/>
         <v>15.2</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="35">
         <f t="shared" si="4"/>
         <v>15.2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -2572,31 +2570,31 @@
         <f t="shared" si="1"/>
         <v>288.60000000000002</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="35">
         <f t="shared" si="3"/>
         <v>68.305000000000007</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="35">
         <f t="shared" si="4"/>
         <v>102.45750000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:11" ht="18.75">
+      <c r="A8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2628,16 +2626,16 @@
         <f t="shared" ref="I9:I13" si="7">(B9*4+C9*4+D9*9)*E9/100</f>
         <v>67.8</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="35">
         <f t="shared" si="3"/>
         <v>85.309999999999988</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="35">
         <f t="shared" si="4"/>
         <v>85.309999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2669,16 +2667,16 @@
         <f t="shared" si="7"/>
         <v>79.239999999999981</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="35">
         <f t="shared" si="3"/>
         <v>49.495000000000005</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="35">
         <f t="shared" si="4"/>
         <v>19.798000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -2710,16 +2708,16 @@
         <f t="shared" si="7"/>
         <v>112</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="35">
         <f t="shared" si="3"/>
         <v>81.7</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="35">
         <f t="shared" si="4"/>
         <v>163.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -2751,16 +2749,16 @@
         <f t="shared" si="7"/>
         <v>186</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="35">
         <f t="shared" si="3"/>
         <v>75.524999999999977</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="35">
         <f t="shared" si="4"/>
         <v>151.04999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2792,31 +2790,31 @@
         <f t="shared" si="7"/>
         <v>128.69999999999999</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="35">
         <f t="shared" si="3"/>
         <v>69.349999999999994</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="35">
         <f t="shared" si="4"/>
         <v>62.414999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:11" ht="18.75">
+      <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -2848,37 +2846,37 @@
         <f t="shared" si="1"/>
         <v>464.8</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="35">
         <f t="shared" si="3"/>
         <v>16.149999999999999</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="35">
         <f t="shared" si="4"/>
         <v>22.61</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:11" ht="18.75">
+      <c r="A16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="38">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="35">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="35">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -2910,16 +2908,16 @@
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="35">
         <f t="shared" si="3"/>
         <v>16.150000000000006</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="35">
         <f t="shared" si="4"/>
         <v>20.187500000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -2951,31 +2949,31 @@
         <f t="shared" si="1"/>
         <v>171.6</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="35">
         <f t="shared" si="3"/>
         <v>72.58</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="35">
         <f t="shared" si="4"/>
         <v>108.87</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:11" ht="18.75">
+      <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -3007,23 +3005,23 @@
         <f t="shared" ref="I20" si="12">(B20*4+C20*4+D20*9)*E20/100</f>
         <v>769.5</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="35">
         <f t="shared" si="3"/>
         <v>66.025000000000006</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="35">
         <f t="shared" si="4"/>
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="15">
         <f>SUM(F3:F20)</f>
         <v>132</v>
@@ -3045,7 +3043,7 @@
         <v>1328.2235000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -3070,7 +3068,7 @@
         <v>3407.105</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3092,7 +3090,7 @@
       </c>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
@@ -3109,7 +3107,7 @@
         <v>1.236328125</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3133,14 +3131,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -3148,7 +3146,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -3183,22 +3181,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:11" ht="18.75">
+      <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -3230,16 +3228,16 @@
         <f t="shared" ref="I3:I18" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>231.99</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="35">
         <f>0.95*(100-D3-C3-B3)</f>
         <v>13.299999999999999</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K3" s="35">
         <f>J3*E3/100</f>
         <v>8.7779999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>53</v>
       </c>
@@ -3271,31 +3269,31 @@
         <f t="shared" si="1"/>
         <v>149</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="35">
         <f t="shared" ref="J4:J20" si="3">0.95*(100-D4-C4-B4)</f>
         <v>84.644999999999996</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="35">
         <f t="shared" ref="K4:K20" si="4">J4*E4/100</f>
         <v>211.61250000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:11" ht="18.75">
+      <c r="A5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -3327,16 +3325,16 @@
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="35">
         <f t="shared" si="3"/>
         <v>16.625</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="35">
         <f t="shared" si="4"/>
         <v>20.78125</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -3368,31 +3366,31 @@
         <f t="shared" si="1"/>
         <v>171.6</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="35">
         <f t="shared" si="3"/>
         <v>72.58</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="35">
         <f t="shared" si="4"/>
         <v>108.87</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:11" ht="18.75">
+      <c r="A8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -3424,16 +3422,16 @@
         <f t="shared" ref="I9:I13" si="7">(B9*4+C9*4+D9*9)*E9/100</f>
         <v>67.8</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="35">
         <f t="shared" si="3"/>
         <v>85.309999999999988</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="35">
         <f t="shared" si="4"/>
         <v>85.309999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -3465,16 +3463,16 @@
         <f t="shared" si="7"/>
         <v>79.239999999999981</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="35">
         <f t="shared" si="3"/>
         <v>49.495000000000005</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="35">
         <f t="shared" si="4"/>
         <v>19.798000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -3506,16 +3504,16 @@
         <f t="shared" si="7"/>
         <v>112</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="35">
         <f t="shared" si="3"/>
         <v>81.7</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="35">
         <f t="shared" si="4"/>
         <v>163.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -3547,16 +3545,16 @@
         <f t="shared" si="7"/>
         <v>186</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="35">
         <f t="shared" si="3"/>
         <v>75.524999999999977</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="35">
         <f t="shared" si="4"/>
         <v>151.04999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -3588,31 +3586,31 @@
         <f t="shared" si="7"/>
         <v>128.69999999999999</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="35">
         <f t="shared" si="3"/>
         <v>69.349999999999994</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="35">
         <f t="shared" si="4"/>
         <v>62.414999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:11" ht="18.75">
+      <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -3644,31 +3642,31 @@
         <f t="shared" si="1"/>
         <v>442.8</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="35">
         <f t="shared" si="3"/>
         <v>17.099999999999998</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="35">
         <f t="shared" si="4"/>
         <v>23.084999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:11" ht="18.75">
+      <c r="A16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3700,16 +3698,16 @@
         <f t="shared" si="1"/>
         <v>369.6</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="35">
         <f t="shared" si="3"/>
         <v>15.2</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="35">
         <f t="shared" si="4"/>
         <v>16.72</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -3741,31 +3739,31 @@
         <f t="shared" si="1"/>
         <v>195.75</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="35">
         <f t="shared" si="3"/>
         <v>70.87</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="35">
         <f t="shared" si="4"/>
         <v>88.587500000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:11" ht="18.75">
+      <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -3797,23 +3795,23 @@
         <f t="shared" ref="I20" si="12">(B20*4+C20*4+D20*9)*E20/100</f>
         <v>769.5</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="35">
         <f t="shared" si="3"/>
         <v>66.025000000000006</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="35">
         <f t="shared" si="4"/>
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="15">
         <f>SUM(F3:F20)</f>
         <v>132.02500000000001</v>
@@ -3835,7 +3833,7 @@
         <v>1316.9422500000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -3860,7 +3858,7 @@
         <v>3325.8549999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3882,7 +3880,7 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
@@ -3899,7 +3897,7 @@
         <v>1.083984375</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3923,14 +3921,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -3938,7 +3936,7 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -3973,22 +3971,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:11" ht="18.75">
+      <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -4020,16 +4018,16 @@
         <f t="shared" ref="I3:I18" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>231.99</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="35">
         <f>0.95*(100-D3-C3-B3)</f>
         <v>13.299999999999999</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K3" s="35">
         <f>J3*E3/100</f>
         <v>8.7779999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -4061,31 +4059,31 @@
         <f t="shared" si="1"/>
         <v>133.25</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="35">
         <f t="shared" ref="J4:J20" si="3">0.95*(100-D4-C4-B4)</f>
         <v>85.309999999999988</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="35">
         <f t="shared" ref="K4:K20" si="4">J4*E4/100</f>
         <v>213.27499999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:11" ht="18.75">
+      <c r="A5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>59</v>
       </c>
@@ -4117,16 +4115,16 @@
         <f t="shared" si="1"/>
         <v>379.5</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="35">
         <f t="shared" si="3"/>
         <v>40.85</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="35">
         <f t="shared" si="4"/>
         <v>61.274999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>60</v>
       </c>
@@ -4158,31 +4156,31 @@
         <f t="shared" si="1"/>
         <v>429.6</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="35">
         <f t="shared" si="3"/>
         <v>48.355000000000004</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="35">
         <f t="shared" si="4"/>
         <v>72.532500000000013</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:11" ht="18.75">
+      <c r="A8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4214,16 +4212,16 @@
         <f t="shared" ref="I9:I13" si="7">(B9*4+C9*4+D9*9)*E9/100</f>
         <v>67.8</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="35">
         <f t="shared" si="3"/>
         <v>85.309999999999988</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="35">
         <f t="shared" si="4"/>
         <v>85.309999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -4255,16 +4253,16 @@
         <f t="shared" si="7"/>
         <v>79.239999999999981</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="35">
         <f t="shared" si="3"/>
         <v>49.495000000000005</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="35">
         <f t="shared" si="4"/>
         <v>19.798000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -4296,16 +4294,16 @@
         <f t="shared" si="7"/>
         <v>128</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="35">
         <f t="shared" si="3"/>
         <v>79.8</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="35">
         <f t="shared" si="4"/>
         <v>159.6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -4337,16 +4335,16 @@
         <f t="shared" si="7"/>
         <v>186</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="35">
         <f t="shared" si="3"/>
         <v>75.524999999999977</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="35">
         <f t="shared" si="4"/>
         <v>151.04999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -4378,31 +4376,31 @@
         <f t="shared" si="7"/>
         <v>167.4</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="35">
         <f t="shared" si="3"/>
         <v>62.699999999999996</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="35">
         <f t="shared" si="4"/>
         <v>56.43</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+    <row r="14" spans="1:11" ht="18.75">
+      <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -4434,31 +4432,31 @@
         <f t="shared" si="1"/>
         <v>459.2</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="35">
         <f t="shared" si="3"/>
         <v>17.099999999999998</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="35">
         <f t="shared" si="4"/>
         <v>23.939999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:11" ht="18.75">
+      <c r="A16" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -4490,16 +4488,16 @@
         <f t="shared" si="1"/>
         <v>357</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="35">
         <f t="shared" si="3"/>
         <v>40.85</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="35">
         <f t="shared" si="4"/>
         <v>61.274999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -4531,31 +4529,31 @@
         <f t="shared" si="1"/>
         <v>318.8</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="35">
         <f t="shared" si="3"/>
         <v>71.155000000000001</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="35">
         <f t="shared" si="4"/>
         <v>142.31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+    <row r="19" spans="1:11" ht="18.75">
+      <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -4587,23 +4585,23 @@
         <f t="shared" ref="I20" si="12">(B20*4+C20*4+D20*9)*E20/100</f>
         <v>769.5</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="35">
         <f t="shared" si="3"/>
         <v>66.025000000000006</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="35">
         <f t="shared" si="4"/>
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
+    <row r="21" spans="1:11" ht="15.75">
+      <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="15">
         <f>SUM(F3:F20)</f>
         <v>156.15</v>
@@ -4625,7 +4623,7 @@
         <v>1412.1084999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -4650,7 +4648,7 @@
         <v>3707.2799999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4672,7 +4670,7 @@
       </c>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="E24" s="6" t="s">
         <v>54</v>
       </c>
@@ -4689,7 +4687,7 @@
         <v>1.715625</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4713,14 +4711,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -4728,7 +4726,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -4763,22 +4761,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:11" ht="18.75">
+      <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -4810,16 +4808,16 @@
         <f t="shared" ref="I3:I17" si="1">(B3*4+C3*4+D3*9)*E3/100</f>
         <v>287.12</v>
       </c>
-      <c r="J3" s="38">
+      <c r="J3" s="35">
         <f>0.95*(100-D3-C3-B3)</f>
         <v>17.005000000000006</v>
       </c>
-      <c r="K3" s="38">
+      <c r="K3" s="35">
         <f>J3*E3/100</f>
         <v>13.604000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -4851,16 +4849,16 @@
         <f t="shared" si="1"/>
         <v>161.75</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="35">
         <f t="shared" ref="J4:J19" si="3">0.95*(100-D4-C4-B4)</f>
         <v>19.000000000000004</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="35">
         <f t="shared" ref="K4:K19" si="4">J4*E4/100</f>
         <v>9.5000000000000018</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -4892,31 +4890,31 @@
         <f t="shared" si="1"/>
         <v>34.559999999999995</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="35">
         <f t="shared" si="3"/>
         <v>13.870000000000003</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="35">
         <f t="shared" si="4"/>
         <v>1.3870000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:11" ht="18.75">
+      <c r="A6" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -4948,16 +4946,16 @@
         <f t="shared" si="1"/>
         <v>421.875</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="35">
         <f t="shared" si="3"/>
         <v>16.625</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="35">
         <f t="shared" si="4"/>
         <v>20.78125</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="3" t="s">
         <v>52</v>
       </c>
@@ -4989,31 +4987,31 @@
         <f t="shared" si="1"/>
         <v>234.9</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="35">
         <f t="shared" si="3"/>
         <v>70.87</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="35">
         <f t="shared" si="4"/>
         <v>106.30500000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+    <row r="9" spans="1:11" ht="18.75">
+      <c r="A9" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -5045,16 +5043,16 @@
         <f t="shared" ref="I10:I12" si="8">(B10*4+C10*4+D10*9)*E10/100</f>
         <v>144.15</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="35">
         <f t="shared" si="3"/>
         <v>87.875</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="35">
         <f t="shared" si="4"/>
         <v>272.41250000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -5086,16 +5084,16 @@
         <f t="shared" si="8"/>
         <v>336.9</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="35">
         <f t="shared" si="3"/>
         <v>15.105000000000004</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="35">
         <f t="shared" si="4"/>
         <v>15.105000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
@@ -5127,31 +5125,31 @@
         <f t="shared" si="8"/>
         <v>195.75</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="35">
         <f t="shared" si="3"/>
         <v>70.87</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="35">
         <f t="shared" si="4"/>
         <v>88.587500000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+    <row r="13" spans="1:11" ht="18.75">
+      <c r="A13" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -5183,31 +5181,31 @@
         <f t="shared" si="1"/>
         <v>442.8</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="35">
         <f t="shared" si="3"/>
         <v>17.099999999999998</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="35">
         <f t="shared" si="4"/>
         <v>23.084999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:11" ht="18.75">
+      <c r="A15" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -5239,16 +5237,16 @@
         <f t="shared" si="1"/>
         <v>369.6</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="35">
         <f t="shared" si="3"/>
         <v>15.2</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="35">
         <f t="shared" si="4"/>
         <v>16.72</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
@@ -5280,31 +5278,31 @@
         <f t="shared" si="1"/>
         <v>195.75</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="35">
         <f t="shared" si="3"/>
         <v>70.87</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="35">
         <f t="shared" si="4"/>
         <v>88.587500000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:11" ht="18.75">
+      <c r="A18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
@@ -5336,23 +5334,23 @@
         <f t="shared" ref="I19" si="13">(B19*4+C19*4+D19*9)*E19/100</f>
         <v>283.8</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="35">
         <f t="shared" si="3"/>
         <v>72.674999999999997</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="35">
         <f t="shared" si="4"/>
         <v>159.88499999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:11" ht="15.75">
+      <c r="A20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="15">
         <f>SUM(F3:F19)</f>
         <v>132.71999999999997</v>
@@ -5374,7 +5372,7 @@
         <v>815.9597500000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -5399,7 +5397,7 @@
         <v>3108.9550000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="10"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -5421,7 +5419,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="E23" s="6" t="s">
         <v>54</v>
       </c>
@@ -5438,7 +5436,7 @@
         <v>1.2017968750000001</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5462,14 +5460,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -5477,7 +5475,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -5512,22 +5510,22 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:11" ht="18.75">
+      <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -5568,7 +5566,7 @@
         <v>13.604000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -5609,7 +5607,7 @@
         <v>9.5000000000000018</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -5650,48 +5648,48 @@
         <v>1.3870000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="40">
-        <v>0</v>
-      </c>
-      <c r="C6" s="40">
-        <v>0</v>
-      </c>
-      <c r="D6" s="40">
-        <v>0</v>
-      </c>
-      <c r="E6" s="40">
-        <v>250</v>
-      </c>
-      <c r="F6" s="41">
+      <c r="B6" s="37">
+        <v>0</v>
+      </c>
+      <c r="C6" s="37">
+        <v>0</v>
+      </c>
+      <c r="D6" s="37">
+        <v>0</v>
+      </c>
+      <c r="E6" s="37">
+        <v>350</v>
+      </c>
+      <c r="F6" s="38">
         <f>B6*$E6/100</f>
         <v>0</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="38">
         <f t="shared" ref="G6" si="6">C6*$E$5/100</f>
         <v>0</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="38">
         <f t="shared" ref="H6" si="7">D6*$E$5/100</f>
         <v>0</v>
       </c>
-      <c r="I6" s="42">
+      <c r="I6" s="39">
         <f t="shared" ref="I6:I7" si="8">(B6*4+C6*4+D6*9)*E6/100</f>
         <v>0</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="38">
         <f t="shared" ref="J6:J7" si="9">0.95*(100-D6-C6-B6)</f>
         <v>95</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="38">
         <f t="shared" ref="K6:K7" si="10">J6*E6/100</f>
-        <v>237.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>332.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>75</v>
       </c>
@@ -5732,22 +5730,22 @@
         <v>141.07499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:11" ht="18.75">
+      <c r="A8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -5788,7 +5786,7 @@
         <v>20.78125</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="33" t="s">
         <v>52</v>
       </c>
@@ -5829,63 +5827,63 @@
         <v>106.30500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+    <row r="11" spans="1:11" ht="15.75">
+      <c r="A11" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="40">
-        <v>0</v>
-      </c>
-      <c r="C11" s="40">
-        <v>0</v>
-      </c>
-      <c r="D11" s="40">
-        <v>0</v>
-      </c>
-      <c r="E11" s="40">
+      <c r="B11" s="37">
+        <v>0</v>
+      </c>
+      <c r="C11" s="37">
+        <v>0</v>
+      </c>
+      <c r="D11" s="37">
+        <v>0</v>
+      </c>
+      <c r="E11" s="37">
         <v>100</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="38">
         <f>B11*$E$10/100</f>
         <v>0</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="38">
         <f t="shared" ref="G11" si="14">C11*$E$10/100</f>
         <v>0</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="38">
         <f t="shared" ref="H11" si="15">D11*$E$10/100</f>
         <v>0</v>
       </c>
-      <c r="I11" s="42">
+      <c r="I11" s="39">
         <f t="shared" ref="I11" si="16">(B11*4+C11*4+D11*9)*E11/100</f>
         <v>0</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="38">
         <f t="shared" ref="J11" si="17">0.95*(100-D11-C11-B11)</f>
         <v>95</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="38">
         <f t="shared" ref="K11" si="18">J11*E11/100</f>
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+    <row r="12" spans="1:11" ht="18.75">
+      <c r="A12" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -5926,7 +5924,7 @@
         <v>272.41250000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -5967,7 +5965,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>63</v>
       </c>
@@ -5984,15 +5982,15 @@
         <v>150</v>
       </c>
       <c r="F15" s="12">
-        <f>B15*$E$15/100</f>
+        <f t="shared" ref="F15:H16" si="23">B15*$E$15/100</f>
         <v>29.25</v>
       </c>
       <c r="G15" s="12">
-        <f>C15*$E$15/100</f>
+        <f t="shared" si="23"/>
         <v>0.15</v>
       </c>
       <c r="H15" s="12">
-        <f>D15*$E$15/100</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="I15" s="25">
@@ -6008,63 +6006,63 @@
         <v>108.87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="A16" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="40">
-        <v>0</v>
-      </c>
-      <c r="C16" s="40">
-        <v>0</v>
-      </c>
-      <c r="D16" s="40">
-        <v>0</v>
-      </c>
-      <c r="E16" s="40">
+      <c r="B16" s="37">
+        <v>0</v>
+      </c>
+      <c r="C16" s="37">
+        <v>0</v>
+      </c>
+      <c r="D16" s="37">
+        <v>0</v>
+      </c>
+      <c r="E16" s="37">
         <v>200</v>
       </c>
-      <c r="F16" s="41">
-        <f>B16*$E$15/100</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="41">
-        <f>C16*$E$15/100</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="41">
-        <f>D16*$E$15/100</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="42">
+      <c r="F16" s="38">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="38">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="38">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="39">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="38">
         <f t="shared" si="21"/>
         <v>95</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="38">
         <f t="shared" si="22"/>
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:11" ht="18.75">
+      <c r="A17" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -6085,11 +6083,11 @@
         <v>1.35</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" ref="G18:H18" si="23">C18*$E$18/100</f>
+        <f t="shared" ref="G18:H18" si="24">C18*$E$18/100</f>
         <v>109.35</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="I18" s="16">
@@ -6105,7 +6103,7 @@
         <v>23.084999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="3" t="s">
         <v>74</v>
       </c>
@@ -6126,11 +6124,11 @@
         <v>0</v>
       </c>
       <c r="G19" s="12">
-        <f t="shared" ref="G19" si="24">C19*$E$18/100</f>
+        <f t="shared" ref="G19" si="25">C19*$E$18/100</f>
         <v>1.35</v>
       </c>
       <c r="H19" s="12">
-        <f t="shared" ref="H19" si="25">D19*$E$18/100</f>
+        <f t="shared" ref="H19" si="26">D19*$E$18/100</f>
         <v>0</v>
       </c>
       <c r="I19" s="16">
@@ -6146,22 +6144,22 @@
         <v>329.17500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+    <row r="20" spans="1:11" ht="18.75">
+      <c r="A20" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -6182,11 +6180,11 @@
         <v>7.7</v>
       </c>
       <c r="G21" s="12">
-        <f t="shared" ref="G21:H21" si="26">C21*$E$21/100</f>
+        <f t="shared" ref="G21:H21" si="27">C21*$E$21/100</f>
         <v>84.7</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="I21" s="16">
@@ -6202,7 +6200,7 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="3" t="s">
         <v>63</v>
       </c>
@@ -6223,11 +6221,11 @@
         <v>29.25</v>
       </c>
       <c r="G22" s="12">
-        <f t="shared" ref="G22:H22" si="27">C22*$E$22/100</f>
+        <f t="shared" ref="G22:H22" si="28">C22*$E$22/100</f>
         <v>0.15</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>6</v>
       </c>
       <c r="I22" s="16">
@@ -6243,63 +6241,63 @@
         <v>108.87</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+    <row r="23" spans="1:11" ht="15.75">
+      <c r="A23" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="40">
-        <v>0</v>
-      </c>
-      <c r="C23" s="40">
-        <v>0</v>
-      </c>
-      <c r="D23" s="40">
-        <v>0</v>
-      </c>
-      <c r="E23" s="40">
+      <c r="B23" s="37">
+        <v>0</v>
+      </c>
+      <c r="C23" s="37">
+        <v>0</v>
+      </c>
+      <c r="D23" s="37">
+        <v>0</v>
+      </c>
+      <c r="E23" s="37">
         <v>200</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="38">
         <f>B23*$E$22/100</f>
         <v>0</v>
       </c>
-      <c r="G23" s="41">
-        <f t="shared" ref="G23" si="28">C23*$E$22/100</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="41">
-        <f t="shared" ref="H23" si="29">D23*$E$22/100</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="42">
-        <f t="shared" ref="I23" si="30">(B23*4+C23*4+D23*9)*E23/100</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="41">
-        <f t="shared" ref="J23" si="31">0.95*(100-D23-C23-B23)</f>
+      <c r="G23" s="38">
+        <f t="shared" ref="G23" si="29">C23*$E$22/100</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="38">
+        <f t="shared" ref="H23" si="30">D23*$E$22/100</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="39">
+        <f t="shared" ref="I23" si="31">(B23*4+C23*4+D23*9)*E23/100</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="38">
+        <f t="shared" ref="J23" si="32">0.95*(100-D23-C23-B23)</f>
         <v>95</v>
       </c>
-      <c r="K23" s="41">
-        <f t="shared" ref="K23" si="32">J23*E23/100</f>
+      <c r="K23" s="38">
+        <f t="shared" ref="K23" si="33">J23*E23/100</f>
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+    <row r="24" spans="1:11" ht="18.75">
+      <c r="A24" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -6320,15 +6318,15 @@
         <v>31.32</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" ref="G25:H25" si="33">C25*$E$25/100</f>
+        <f t="shared" ref="G25:H25" si="34">C25*$E$25/100</f>
         <v>111.24</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>22.14</v>
       </c>
       <c r="I25" s="3">
-        <f t="shared" ref="I25" si="34">(B25*4+C25*4+D25*9)*E25/100</f>
+        <f t="shared" ref="I25" si="35">(B25*4+C25*4+D25*9)*E25/100</f>
         <v>769.5</v>
       </c>
       <c r="J25" s="12">
@@ -6340,14 +6338,14 @@
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+    <row r="26" spans="1:11" ht="15.75">
+      <c r="A26" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="15">
         <f>SUM(F3:F25)</f>
         <v>153.79</v>
@@ -6366,10 +6364,10 @@
       </c>
       <c r="K26" s="15">
         <f>SUM(K3:K25)</f>
-        <v>2236.0197499999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2331.0197499999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -6382,7 +6380,7 @@
         <v>615.16</v>
       </c>
       <c r="G27" s="15">
-        <f t="shared" ref="G27" si="35">G26*4</f>
+        <f t="shared" ref="G27" si="36">G26*4</f>
         <v>2329.1999999999998</v>
       </c>
       <c r="H27" s="15">
@@ -6394,7 +6392,7 @@
         <v>3556.8549999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75">
       <c r="A28" s="10"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -6407,16 +6405,16 @@
         <v>17.295054198161015</v>
       </c>
       <c r="G28" s="9">
-        <f t="shared" ref="G28:H28" si="36">G27/($F$27+$G$27+$H$27)*100</f>
+        <f t="shared" ref="G28:H28" si="37">G27/($F$27+$G$27+$H$27)*100</f>
         <v>65.484817345660701</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>17.220128456178287</v>
       </c>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="E29" s="6" t="s">
         <v>54</v>
       </c>
@@ -6425,15 +6423,15 @@
         <v>2.4029687499999999</v>
       </c>
       <c r="G29" s="21">
-        <f t="shared" ref="G29:H29" si="37">G26/$A$1</f>
+        <f t="shared" ref="G29:H29" si="38">G26/$A$1</f>
         <v>9.0984374999999993</v>
       </c>
       <c r="H29" s="21">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.0633593750000001</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -6457,20 +6455,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="28"/>
       <c r="B1" s="29" t="s">
         <v>34</v>
@@ -6483,7 +6481,7 @@
       </c>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="28" t="s">
         <v>31</v>
       </c>
@@ -6500,7 +6498,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
@@ -6517,7 +6515,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="28" t="s">
         <v>32</v>
       </c>
@@ -6534,7 +6532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="28" t="s">
         <v>33</v>
       </c>
@@ -6551,7 +6549,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="28" t="s">
         <v>40</v>
       </c>
@@ -6568,7 +6566,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="28" t="s">
         <v>9</v>
       </c>
@@ -6585,7 +6583,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
@@ -6602,7 +6600,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="28" t="s">
         <v>27</v>
       </c>
@@ -6619,7 +6617,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="28" t="s">
         <v>12</v>
       </c>
@@ -6636,7 +6634,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="28" t="s">
         <v>29</v>
       </c>
@@ -6653,7 +6651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="28" t="s">
         <v>24</v>
       </c>
@@ -6670,7 +6668,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="28" t="s">
         <v>55</v>
       </c>
@@ -6687,7 +6685,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="28" t="s">
         <v>66</v>
       </c>
@@ -6704,7 +6702,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="28" t="s">
         <v>51</v>
       </c>
@@ -6721,7 +6719,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="28" t="s">
         <v>60</v>
       </c>
@@ -6738,7 +6736,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="28" t="s">
         <v>61</v>
       </c>
@@ -6755,7 +6753,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="28" t="s">
         <v>58</v>
       </c>
@@ -6772,7 +6770,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="28" t="s">
         <v>45</v>
       </c>
@@ -6789,7 +6787,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="28" t="s">
         <v>46</v>
       </c>
@@ -6806,7 +6804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75">
       <c r="B21" s="31" t="s">
         <v>67</v>
       </c>
@@ -6815,15 +6813,15 @@
         <v>43.969999999999992</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:5" ht="18.75">
+      <c r="A22" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="28" t="s">
         <v>58</v>
       </c>
@@ -6834,7 +6832,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="28" t="s">
         <v>45</v>
       </c>
@@ -6845,7 +6843,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="28" t="s">
         <v>46</v>
       </c>
@@ -6856,7 +6854,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="28" t="s">
         <v>48</v>
       </c>
@@ -6867,7 +6865,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="28"/>
       <c r="B27" s="28" t="s">
         <v>49</v>
@@ -6877,7 +6875,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="28"/>
       <c r="B28" s="28" t="s">
         <v>50</v>

--- a/ratsiony.xlsx
+++ b/ratsiony.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="-135" windowWidth="18540" windowHeight="6690" activeTab="6"/>
+    <workbookView xWindow="165" yWindow="-135" windowWidth="18540" windowHeight="6690" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="пн" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="76">
   <si>
     <t>калории</t>
   </si>
@@ -206,9 +206,6 @@
     <t>Сыр лёгкий</t>
   </si>
   <si>
-    <t>Томатная паста</t>
-  </si>
-  <si>
     <t>Обед 13:00</t>
   </si>
   <si>
@@ -249,6 +246,9 @@
   </si>
   <si>
     <t>Кофе</t>
+  </si>
+  <si>
+    <t>Аджика</t>
   </si>
 </sst>
 </file>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75">
@@ -923,7 +923,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="4">
         <v>24</v>
@@ -1595,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75">
@@ -2123,7 +2123,7 @@
     </row>
     <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="4">
         <v>12</v>
@@ -2379,10 +2379,10 @@
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75">
@@ -3175,10 +3175,10 @@
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75">
@@ -3965,10 +3965,10 @@
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75">
@@ -4755,10 +4755,10 @@
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75">
@@ -4860,7 +4860,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="4">
         <v>0.6</v>
@@ -4998,7 +4998,7 @@
     </row>
     <row r="9" spans="1:11" ht="18.75">
       <c r="A9" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="4">
         <v>15</v>
@@ -5463,7 +5463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -5504,10 +5504,10 @@
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18.75">
@@ -5609,7 +5609,7 @@
     </row>
     <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="4">
         <v>0.6</v>
@@ -5650,7 +5650,7 @@
     </row>
     <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="37">
         <v>0</v>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -5829,7 +5829,7 @@
     </row>
     <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="37">
         <v>0</v>
@@ -5870,7 +5870,7 @@
     </row>
     <row r="12" spans="1:11" ht="18.75">
       <c r="A12" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="4">
         <v>19.5</v>
@@ -6008,7 +6008,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="37">
         <v>0</v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -6202,7 +6202,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="4">
         <v>19.5</v>
@@ -6243,7 +6243,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="37">
         <v>0</v>
@@ -6458,8 +6458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6509,7 +6509,7 @@
         <v>2.75</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>57</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B14" s="29">
         <v>650</v>
@@ -6738,13 +6738,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="28" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B17" s="29">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C17" s="29">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="D17" s="29" t="s">
         <v>35</v>
@@ -6754,15 +6754,9 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="29">
-        <v>300</v>
-      </c>
-      <c r="C18" s="29">
-        <v>1.3</v>
-      </c>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="29" t="s">
         <v>36</v>
       </c>
@@ -6771,15 +6765,9 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="29">
-        <v>200</v>
-      </c>
-      <c r="C19" s="29">
-        <v>1.3</v>
-      </c>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="29" t="s">
         <v>36</v>
       </c>
@@ -6788,15 +6776,9 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="29">
-        <v>100</v>
-      </c>
-      <c r="C20" s="29">
-        <v>1</v>
-      </c>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="29" t="s">
         <v>36</v>
       </c>
@@ -6806,11 +6788,11 @@
     </row>
     <row r="21" spans="1:5" ht="15.75">
       <c r="B21" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="32">
         <f>SUM(C2:C20)</f>
-        <v>43.969999999999992</v>
+        <v>40.22</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="18.75">

--- a/ratsiony.xlsx
+++ b/ratsiony.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="165" yWindow="-135" windowWidth="18540" windowHeight="6690" activeTab="7"/>
@@ -16,12 +16,12 @@
     <sheet name="вс" sheetId="11" r:id="rId7"/>
     <sheet name="неделя" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="76">
   <si>
     <t>калории</t>
   </si>
@@ -158,12 +158,6 @@
     <t>Рис/гречка</t>
   </si>
   <si>
-    <t>помидор</t>
-  </si>
-  <si>
-    <t>перец сладкий</t>
-  </si>
-  <si>
     <t>обед</t>
   </si>
   <si>
@@ -197,9 +191,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>огурец</t>
-  </si>
-  <si>
     <t>Булка для сэндвичей</t>
   </si>
   <si>
@@ -249,16 +240,25 @@
   </si>
   <si>
     <t>Аджика</t>
+  </si>
+  <si>
+    <t>морская капуста</t>
+  </si>
+  <si>
+    <t>фасоль</t>
+  </si>
+  <si>
+    <t>перец болгарский</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +548,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -582,6 +583,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -757,14 +759,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -774,7 +776,7 @@
     <col min="12" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -803,13 +805,13 @@
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
@@ -824,7 +826,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -865,9 +867,9 @@
         <v>8.7779999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -906,7 +908,7 @@
         <v>211.61250000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>17</v>
       </c>
@@ -921,9 +923,9 @@
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" s="4">
         <v>24</v>
@@ -962,7 +964,7 @@
         <v>21.375</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -1003,7 +1005,7 @@
         <v>101.175</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>22</v>
       </c>
@@ -1018,7 +1020,7 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1059,7 +1061,7 @@
         <v>85.309999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1100,7 +1102,7 @@
         <v>19.798000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1141,7 +1143,7 @@
         <v>163.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1182,7 +1184,7 @@
         <v>151.04999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1223,7 +1225,7 @@
         <v>62.414999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
@@ -1238,7 +1240,7 @@
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1279,7 +1281,7 @@
         <v>22.61</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>19</v>
       </c>
@@ -1294,7 +1296,7 @@
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1335,7 +1337,7 @@
         <v>20.187500000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1376,7 +1378,7 @@
         <v>67.45</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
@@ -1391,7 +1393,7 @@
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1432,7 +1434,7 @@
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
@@ -1462,7 +1464,7 @@
         <v>1291.6959999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -1487,7 +1489,7 @@
         <v>3418.4049999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1509,9 +1511,9 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="21">
         <f>F21/$A$1</f>
@@ -1526,7 +1528,7 @@
         <v>1.416015625</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1551,14 +1553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K3"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -1566,7 +1568,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -1595,13 +1597,13 @@
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
@@ -1616,7 +1618,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -1657,9 +1659,9 @@
         <v>8.7779999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -1698,7 +1700,7 @@
         <v>211.61250000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>17</v>
       </c>
@@ -1713,7 +1715,7 @@
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1754,7 +1756,7 @@
         <v>20.78125</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -1795,7 +1797,7 @@
         <v>68.305000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -1808,7 +1810,7 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1849,7 +1851,7 @@
         <v>85.309999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1890,7 +1892,7 @@
         <v>19.798000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1931,7 +1933,7 @@
         <v>163.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1972,7 +1974,7 @@
         <v>151.04999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2013,7 +2015,7 @@
         <v>62.414999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -2026,7 +2028,7 @@
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -2067,7 +2069,7 @@
         <v>23.084999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
@@ -2080,7 +2082,7 @@
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -2121,9 +2123,9 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B18" s="4">
         <v>12</v>
@@ -2162,7 +2164,7 @@
         <v>102.45750000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
@@ -2177,7 +2179,7 @@
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -2218,7 +2220,7 @@
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
@@ -2247,7 +2249,7 @@
         <v>1290.2472500000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -2272,7 +2274,7 @@
         <v>3439.5049999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2294,9 +2296,9 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="21">
         <f>F21/$A$1</f>
@@ -2311,7 +2313,7 @@
         <v>1.400390625</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2335,14 +2337,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -2350,7 +2352,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -2379,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
@@ -2400,7 +2402,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -2441,9 +2443,9 @@
         <v>8.7779999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -2482,7 +2484,7 @@
         <v>211.61250000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>17</v>
       </c>
@@ -2497,7 +2499,7 @@
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2538,7 +2540,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -2579,7 +2581,7 @@
         <v>102.45750000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>22</v>
       </c>
@@ -2594,7 +2596,7 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2635,7 +2637,7 @@
         <v>85.309999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2676,7 +2678,7 @@
         <v>19.798000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -2717,7 +2719,7 @@
         <v>163.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -2758,7 +2760,7 @@
         <v>151.04999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2799,7 +2801,7 @@
         <v>62.414999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
@@ -2814,7 +2816,7 @@
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -2855,7 +2857,7 @@
         <v>22.61</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>19</v>
       </c>
@@ -2876,7 +2878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -2917,7 +2919,7 @@
         <v>20.187500000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -2958,7 +2960,7 @@
         <v>108.87</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
@@ -2973,7 +2975,7 @@
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -3014,7 +3016,7 @@
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
@@ -3043,7 +3045,7 @@
         <v>1328.2235000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -3068,7 +3070,7 @@
         <v>3407.105</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3090,9 +3092,9 @@
       </c>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="21">
         <f>F21/$A$1</f>
@@ -3107,7 +3109,7 @@
         <v>1.236328125</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3131,14 +3133,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -3146,7 +3148,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -3175,13 +3177,13 @@
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
@@ -3196,7 +3198,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -3237,9 +3239,9 @@
         <v>8.7779999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -3278,7 +3280,7 @@
         <v>211.61250000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>17</v>
       </c>
@@ -3293,7 +3295,7 @@
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -3334,7 +3336,7 @@
         <v>20.78125</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -3375,7 +3377,7 @@
         <v>108.87</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>22</v>
       </c>
@@ -3390,7 +3392,7 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -3431,7 +3433,7 @@
         <v>85.309999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -3472,7 +3474,7 @@
         <v>19.798000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -3513,7 +3515,7 @@
         <v>163.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -3554,7 +3556,7 @@
         <v>151.04999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -3595,7 +3597,7 @@
         <v>62.414999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
@@ -3610,7 +3612,7 @@
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -3651,7 +3653,7 @@
         <v>23.084999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>19</v>
       </c>
@@ -3666,7 +3668,7 @@
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3707,9 +3709,9 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" s="4">
         <v>14.3</v>
@@ -3748,7 +3750,7 @@
         <v>88.587500000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
@@ -3763,7 +3765,7 @@
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -3804,7 +3806,7 @@
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
@@ -3833,7 +3835,7 @@
         <v>1316.9422500000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -3858,7 +3860,7 @@
         <v>3325.8549999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3880,9 +3882,9 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="21">
         <f>F21/$A$1</f>
@@ -3897,7 +3899,7 @@
         <v>1.083984375</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3921,14 +3923,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -3936,7 +3938,7 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -3965,13 +3967,13 @@
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
@@ -3986,7 +3988,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -4027,7 +4029,7 @@
         <v>8.7779999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -4068,7 +4070,7 @@
         <v>213.27499999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75">
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>17</v>
       </c>
@@ -4083,9 +4085,9 @@
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4">
         <v>7</v>
@@ -4124,9 +4126,9 @@
         <v>61.274999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B7" s="4">
         <v>31</v>
@@ -4165,7 +4167,7 @@
         <v>72.532500000000013</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>22</v>
       </c>
@@ -4180,7 +4182,7 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4221,7 +4223,7 @@
         <v>85.309999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -4262,7 +4264,7 @@
         <v>19.798000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -4303,7 +4305,7 @@
         <v>159.6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -4344,7 +4346,7 @@
         <v>151.04999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -4385,7 +4387,7 @@
         <v>56.43</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75">
+    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
@@ -4400,7 +4402,7 @@
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -4441,7 +4443,7 @@
         <v>23.939999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75">
+    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>19</v>
       </c>
@@ -4456,7 +4458,7 @@
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -4497,7 +4499,7 @@
         <v>61.274999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -4538,7 +4540,7 @@
         <v>142.31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75">
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
@@ -4553,7 +4555,7 @@
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -4594,7 +4596,7 @@
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
@@ -4623,7 +4625,7 @@
         <v>1412.1084999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -4648,7 +4650,7 @@
         <v>3707.2799999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4670,9 +4672,9 @@
       </c>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E24" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="21">
         <f>F21/$A$1</f>
@@ -4687,7 +4689,7 @@
         <v>1.715625</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4711,14 +4713,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -4726,7 +4728,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -4755,13 +4757,13 @@
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
@@ -4776,7 +4778,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -4817,7 +4819,7 @@
         <v>13.604000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -4858,9 +4860,9 @@
         <v>9.5000000000000018</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4">
         <v>0.6</v>
@@ -4899,7 +4901,7 @@
         <v>1.3870000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.75">
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>17</v>
       </c>
@@ -4914,7 +4916,7 @@
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -4955,9 +4957,9 @@
         <v>20.78125</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4">
         <v>14.3</v>
@@ -4996,9 +4998,9 @@
         <v>106.30500000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.75">
+    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -5011,7 +5013,7 @@
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -5052,7 +5054,7 @@
         <v>272.41250000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -5093,9 +5095,9 @@
         <v>15.105000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="4">
         <v>14.3</v>
@@ -5134,7 +5136,7 @@
         <v>88.587500000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18.75">
+    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>18</v>
       </c>
@@ -5149,7 +5151,7 @@
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -5190,7 +5192,7 @@
         <v>23.084999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18.75">
+    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>19</v>
       </c>
@@ -5205,7 +5207,7 @@
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -5246,9 +5248,9 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="4">
         <v>14.3</v>
@@ -5287,7 +5289,7 @@
         <v>88.587500000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75">
+    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>20</v>
       </c>
@@ -5302,9 +5304,9 @@
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B19" s="4">
         <v>15</v>
@@ -5343,7 +5345,7 @@
         <v>159.88499999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="40" t="s">
         <v>21</v>
       </c>
@@ -5372,7 +5374,7 @@
         <v>815.9597500000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -5397,7 +5399,7 @@
         <v>3108.9550000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -5419,9 +5421,9 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E23" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F23" s="21">
         <f>F20/$A$1</f>
@@ -5436,7 +5438,7 @@
         <v>1.2017968750000001</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5460,14 +5462,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -5475,7 +5477,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -5504,13 +5506,13 @@
         <v>0</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.75">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
@@ -5525,7 +5527,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -5566,7 +5568,7 @@
         <v>13.604000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -5607,9 +5609,9 @@
         <v>9.5000000000000018</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4">
         <v>0.6</v>
@@ -5648,9 +5650,9 @@
         <v>1.3870000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" s="37">
         <v>0</v>
@@ -5689,9 +5691,9 @@
         <v>332.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -5730,7 +5732,7 @@
         <v>141.07499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75">
+    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>17</v>
       </c>
@@ -5745,7 +5747,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -5786,9 +5788,9 @@
         <v>20.78125</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4">
         <v>14.3</v>
@@ -5827,9 +5829,9 @@
         <v>106.30500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" s="37">
         <v>0</v>
@@ -5868,9 +5870,9 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.75">
+    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
@@ -5883,7 +5885,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -5924,7 +5926,7 @@
         <v>272.41250000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -5965,9 +5967,9 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B15" s="4">
         <v>19.5</v>
@@ -6006,9 +6008,9 @@
         <v>108.87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B16" s="37">
         <v>0</v>
@@ -6047,7 +6049,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18.75">
+    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="41" t="s">
         <v>18</v>
       </c>
@@ -6062,7 +6064,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -6103,9 +6105,9 @@
         <v>23.084999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -6144,7 +6146,7 @@
         <v>329.17500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.75">
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>19</v>
       </c>
@@ -6159,7 +6161,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -6200,9 +6202,9 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" s="4">
         <v>19.5</v>
@@ -6241,9 +6243,9 @@
         <v>108.87</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B23" s="37">
         <v>0</v>
@@ -6282,7 +6284,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18.75">
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
         <v>20</v>
       </c>
@@ -6297,7 +6299,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -6338,7 +6340,7 @@
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75">
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
         <v>21</v>
       </c>
@@ -6367,7 +6369,7 @@
         <v>2331.0197499999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -6392,7 +6394,7 @@
         <v>3556.8549999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75">
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -6414,9 +6416,9 @@
       </c>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E29" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F29" s="21">
         <f>F26/$A$1</f>
@@ -6431,7 +6433,7 @@
         <v>1.0633593750000001</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -6455,33 +6457,33 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="28"/>
       <c r="B1" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D1" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>31</v>
       </c>
@@ -6495,10 +6497,10 @@
         <v>35</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
@@ -6509,13 +6511,13 @@
         <v>2.75</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>32</v>
       </c>
@@ -6529,10 +6531,10 @@
         <v>35</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>33</v>
       </c>
@@ -6546,10 +6548,10 @@
         <v>35</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>40</v>
       </c>
@@ -6563,10 +6565,10 @@
         <v>36</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>9</v>
       </c>
@@ -6580,10 +6582,10 @@
         <v>37</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
@@ -6597,10 +6599,10 @@
         <v>35</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>27</v>
       </c>
@@ -6614,10 +6616,10 @@
         <v>36</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>12</v>
       </c>
@@ -6631,10 +6633,10 @@
         <v>36</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>29</v>
       </c>
@@ -6648,10 +6650,10 @@
         <v>36</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>24</v>
       </c>
@@ -6665,12 +6667,12 @@
         <v>36</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B13" s="29">
         <v>630</v>
@@ -6682,12 +6684,12 @@
         <v>35</v>
       </c>
       <c r="E13" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B14" s="29">
         <v>650</v>
@@ -6699,12 +6701,12 @@
         <v>36</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="29">
         <v>675</v>
@@ -6716,12 +6718,12 @@
         <v>36</v>
       </c>
       <c r="E15" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="28" t="s">
-        <v>60</v>
       </c>
       <c r="B16" s="29">
         <v>150</v>
@@ -6733,12 +6735,12 @@
         <v>36</v>
       </c>
       <c r="E16" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B17" s="29">
         <v>100</v>
@@ -6750,95 +6752,113 @@
         <v>35</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="29">
+        <v>200</v>
+      </c>
+      <c r="C18" s="29">
+        <v>1</v>
+      </c>
       <c r="D18" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="29">
+        <v>200</v>
+      </c>
+      <c r="C19" s="29">
+        <v>0.4</v>
+      </c>
       <c r="D19" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="29">
+        <v>200</v>
+      </c>
+      <c r="C20" s="29">
+        <v>1.5</v>
+      </c>
       <c r="D20" s="29" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C21" s="32">
         <f>SUM(C2:C20)</f>
-        <v>40.22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18.75">
+        <v>43.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B23" s="28">
-        <v>750</v>
+        <v>500</v>
       </c>
       <c r="C23" s="28">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="B24" s="28">
         <v>500</v>
       </c>
       <c r="C24" s="28">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="B25" s="28">
         <v>250</v>
       </c>
       <c r="C25" s="28">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="28">
         <v>100</v>
@@ -6847,24 +6867,24 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="28"/>
       <c r="B27" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="28">
         <f>SUM(C23:C26)</f>
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C28" s="30">
         <f>C27/5</f>
-        <v>1.56</v>
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>

--- a/ratsiony.xlsx
+++ b/ratsiony.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="-135" windowWidth="18540" windowHeight="6690" activeTab="7"/>
+    <workbookView xWindow="165" yWindow="-135" windowWidth="18540" windowHeight="6690"/>
   </bookViews>
   <sheets>
     <sheet name="пн" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="вс" sheetId="11" r:id="rId7"/>
     <sheet name="неделя" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -254,11 +254,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -459,6 +459,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -548,7 +551,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -583,7 +585,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -759,14 +760,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -776,7 +777,7 @@
     <col min="12" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -811,7 +812,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75">
       <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
@@ -826,7 +827,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -867,7 +868,7 @@
         <v>8.7779999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
@@ -908,7 +909,7 @@
         <v>211.61250000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.75">
       <c r="A5" s="41" t="s">
         <v>17</v>
       </c>
@@ -923,7 +924,7 @@
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
@@ -964,7 +965,7 @@
         <v>21.375</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -1005,7 +1006,7 @@
         <v>101.175</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.75">
       <c r="A8" s="41" t="s">
         <v>22</v>
       </c>
@@ -1020,7 +1021,7 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>85.309999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>19.798000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>163.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>151.04999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1225,7 +1226,7 @@
         <v>62.414999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="18.75">
       <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
@@ -1240,7 +1241,7 @@
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -1281,7 +1282,7 @@
         <v>22.61</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.75">
       <c r="A16" s="41" t="s">
         <v>19</v>
       </c>
@@ -1296,7 +1297,7 @@
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>20.187500000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>67.45</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="18.75">
       <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
@@ -1393,15 +1394,15 @@
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="4">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="C20" s="5">
-        <v>20.6</v>
+        <v>19.7</v>
       </c>
       <c r="D20" s="5">
         <v>4.0999999999999996</v>
@@ -1411,30 +1412,30 @@
       </c>
       <c r="F20" s="5">
         <f>B20*$E$20/100</f>
-        <v>31.32</v>
+        <v>30.24</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" ref="G20:H20" si="11">C20*$E$20/100</f>
-        <v>111.24</v>
+        <v>106.38</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" si="11"/>
         <v>22.14</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="43">
         <f t="shared" ref="I20" si="12">(B20*4+C20*4+D20*9)*E20/100</f>
-        <v>769.5</v>
+        <v>745.74</v>
       </c>
       <c r="J20" s="35">
         <f t="shared" si="5"/>
-        <v>66.025000000000006</v>
+        <v>67.070000000000007</v>
       </c>
       <c r="K20" s="35">
         <f t="shared" si="3"/>
-        <v>356.53500000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>362.17800000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
@@ -1444,11 +1445,11 @@
       <c r="E21" s="40"/>
       <c r="F21" s="15">
         <f>SUM(F3:F20)</f>
-        <v>131.75</v>
+        <v>130.67000000000002</v>
       </c>
       <c r="G21" s="15">
         <f>SUM(G3:G20)</f>
-        <v>518.94499999999994</v>
+        <v>514.08500000000004</v>
       </c>
       <c r="H21" s="15">
         <f>SUM(H3:H20)</f>
@@ -1456,15 +1457,15 @@
       </c>
       <c r="I21" s="24">
         <f>SUM(I3:I20)</f>
-        <v>3418.4049999999997</v>
+        <v>3394.6449999999995</v>
       </c>
       <c r="J21" s="34"/>
       <c r="K21" s="15">
         <f>SUM(K3:K20)</f>
-        <v>1291.6959999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>1297.3389999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -1474,11 +1475,11 @@
       </c>
       <c r="F22" s="15">
         <f>F21*4</f>
-        <v>527</v>
+        <v>522.68000000000006</v>
       </c>
       <c r="G22" s="15">
         <f>G21*4</f>
-        <v>2075.7799999999997</v>
+        <v>2056.34</v>
       </c>
       <c r="H22" s="15">
         <f>H21*9</f>
@@ -1486,10 +1487,10 @@
       </c>
       <c r="I22" s="24">
         <f>F22+G22+H22</f>
-        <v>3418.4049999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>3394.6450000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1499,36 +1500,36 @@
       </c>
       <c r="F23" s="15">
         <f>F22/($F$22+$G$22+$H$22)*100</f>
-        <v>15.416546605800075</v>
+        <v>15.397191753482323</v>
       </c>
       <c r="G23" s="15">
         <f t="shared" ref="G23:H23" si="13">G22/($F$22+$G$22+$H$22)*100</f>
-        <v>60.723641581380782</v>
+        <v>60.575995428093364</v>
       </c>
       <c r="H23" s="15">
         <f t="shared" si="13"/>
-        <v>23.859811812819139</v>
+        <v>24.026812818424307</v>
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="E24" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F24" s="21">
         <f>F21/$A$1</f>
-        <v>2.05859375</v>
+        <v>2.0417187500000002</v>
       </c>
       <c r="G24" s="21">
         <f t="shared" ref="G24:H24" si="14">G21/$A$1</f>
-        <v>8.108515624999999</v>
+        <v>8.0325781250000006</v>
       </c>
       <c r="H24" s="21">
         <f t="shared" si="14"/>
         <v>1.416015625</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1553,14 +1554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -1568,7 +1569,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75">
       <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
@@ -1618,7 +1619,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>8.7779999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
@@ -1700,7 +1701,7 @@
         <v>211.61250000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.75">
       <c r="A5" s="41" t="s">
         <v>17</v>
       </c>
@@ -1715,7 +1716,7 @@
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>20.78125</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -1797,7 +1798,7 @@
         <v>68.305000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.75">
       <c r="A8" s="41"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
@@ -1810,7 +1811,7 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>85.309999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1892,7 +1893,7 @@
         <v>19.798000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1933,7 +1934,7 @@
         <v>163.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>151.04999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>62.414999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="18.75">
       <c r="A14" s="41"/>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
@@ -2028,7 +2029,7 @@
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -2069,7 +2070,7 @@
         <v>23.084999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.75">
       <c r="A16" s="41"/>
       <c r="B16" s="41"/>
       <c r="C16" s="41"/>
@@ -2082,7 +2083,7 @@
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -2123,7 +2124,7 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>102.45750000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="18.75">
       <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
@@ -2179,7 +2180,7 @@
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -2220,7 +2221,7 @@
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>1290.2472500000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -2274,7 +2275,7 @@
         <v>3439.5049999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2296,7 +2297,7 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="E24" s="6" t="s">
         <v>52</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>1.400390625</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -2337,14 +2338,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -2352,7 +2353,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75">
       <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
@@ -2402,7 +2403,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>8.7779999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
@@ -2484,7 +2485,7 @@
         <v>211.61250000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.75">
       <c r="A5" s="41" t="s">
         <v>17</v>
       </c>
@@ -2499,7 +2500,7 @@
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -2581,7 +2582,7 @@
         <v>102.45750000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.75">
       <c r="A8" s="41" t="s">
         <v>22</v>
       </c>
@@ -2596,7 +2597,7 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -2637,7 +2638,7 @@
         <v>85.309999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>19.798000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>163.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -2760,7 +2761,7 @@
         <v>151.04999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>62.414999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="18.75">
       <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
@@ -2816,7 +2817,7 @@
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
@@ -2857,7 +2858,7 @@
         <v>22.61</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.75">
       <c r="A16" s="41" t="s">
         <v>19</v>
       </c>
@@ -2878,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
@@ -2919,7 +2920,7 @@
         <v>20.187500000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>108.87</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="18.75">
       <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
@@ -2975,7 +2976,7 @@
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
@@ -3045,7 +3046,7 @@
         <v>1328.2235000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -3070,7 +3071,7 @@
         <v>3407.105</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3092,7 +3093,7 @@
       </c>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="E24" s="6" t="s">
         <v>52</v>
       </c>
@@ -3109,7 +3110,7 @@
         <v>1.236328125</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3133,14 +3134,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -3148,7 +3149,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75">
       <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
@@ -3198,7 +3199,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>8.7779999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>51</v>
       </c>
@@ -3280,7 +3281,7 @@
         <v>211.61250000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.75">
       <c r="A5" s="41" t="s">
         <v>17</v>
       </c>
@@ -3295,7 +3296,7 @@
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>20.78125</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>108.87</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.75">
       <c r="A8" s="41" t="s">
         <v>22</v>
       </c>
@@ -3392,7 +3393,7 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>85.309999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -3474,7 +3475,7 @@
         <v>19.798000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>163.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>151.04999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -3597,7 +3598,7 @@
         <v>62.414999999999992</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="18.75">
       <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
@@ -3612,7 +3613,7 @@
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>23.084999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.75">
       <c r="A16" s="41" t="s">
         <v>19</v>
       </c>
@@ -3668,7 +3669,7 @@
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>50</v>
       </c>
@@ -3750,7 +3751,7 @@
         <v>88.587500000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="18.75">
       <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
@@ -3765,7 +3766,7 @@
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -3806,7 +3807,7 @@
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
@@ -3835,7 +3836,7 @@
         <v>1316.9422500000001</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -3860,7 +3861,7 @@
         <v>3325.8549999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -3882,7 +3883,7 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="E24" s="6" t="s">
         <v>52</v>
       </c>
@@ -3899,7 +3900,7 @@
         <v>1.083984375</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3923,14 +3924,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -3938,7 +3939,7 @@
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -3973,7 +3974,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75">
       <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
@@ -3988,7 +3989,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -4029,7 +4030,7 @@
         <v>8.7779999999999987</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
@@ -4070,7 +4071,7 @@
         <v>213.27499999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="18.75">
       <c r="A5" s="41" t="s">
         <v>17</v>
       </c>
@@ -4085,7 +4086,7 @@
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="3" t="s">
         <v>56</v>
       </c>
@@ -4126,7 +4127,7 @@
         <v>61.274999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>72.532500000000013</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.75">
       <c r="A8" s="41" t="s">
         <v>22</v>
       </c>
@@ -4182,7 +4183,7 @@
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>85.309999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -4264,7 +4265,7 @@
         <v>19.798000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -4305,7 +4306,7 @@
         <v>159.6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -4346,7 +4347,7 @@
         <v>151.04999999999995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
@@ -4387,7 +4388,7 @@
         <v>56.43</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="18.75">
       <c r="A14" s="41" t="s">
         <v>18</v>
       </c>
@@ -4402,7 +4403,7 @@
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -4443,7 +4444,7 @@
         <v>23.939999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="18.75">
       <c r="A16" s="41" t="s">
         <v>19</v>
       </c>
@@ -4458,7 +4459,7 @@
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -4499,7 +4500,7 @@
         <v>61.274999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -4540,7 +4541,7 @@
         <v>142.31</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="18.75">
       <c r="A19" s="41" t="s">
         <v>20</v>
       </c>
@@ -4555,7 +4556,7 @@
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -4596,7 +4597,7 @@
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>1412.1084999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="23"/>
       <c r="B22" s="23"/>
       <c r="C22" s="23"/>
@@ -4650,7 +4651,7 @@
         <v>3707.2799999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="10"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -4672,7 +4673,7 @@
       </c>
       <c r="I23" s="18"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="E24" s="6" t="s">
         <v>52</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>1.715625</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4713,14 +4714,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -4728,7 +4729,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -4763,7 +4764,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75">
       <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
@@ -4778,7 +4779,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -4819,7 +4820,7 @@
         <v>13.604000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -4860,7 +4861,7 @@
         <v>9.5000000000000018</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
@@ -4901,7 +4902,7 @@
         <v>1.3870000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="18.75">
       <c r="A6" s="41" t="s">
         <v>17</v>
       </c>
@@ -4916,7 +4917,7 @@
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
@@ -4957,7 +4958,7 @@
         <v>20.78125</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75">
       <c r="A8" s="3" t="s">
         <v>50</v>
       </c>
@@ -4998,7 +4999,7 @@
         <v>106.30500000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="18.75">
       <c r="A9" s="41" t="s">
         <v>58</v>
       </c>
@@ -5013,7 +5014,7 @@
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>272.41250000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -5095,7 +5096,7 @@
         <v>15.105000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
@@ -5136,7 +5137,7 @@
         <v>88.587500000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="18.75">
       <c r="A13" s="41" t="s">
         <v>18</v>
       </c>
@@ -5151,7 +5152,7 @@
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -5192,7 +5193,7 @@
         <v>23.084999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="18.75">
       <c r="A15" s="41" t="s">
         <v>19</v>
       </c>
@@ -5207,7 +5208,7 @@
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="3" t="s">
         <v>50</v>
       </c>
@@ -5289,7 +5290,7 @@
         <v>88.587500000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="18.75">
       <c r="A18" s="41" t="s">
         <v>20</v>
       </c>
@@ -5304,7 +5305,7 @@
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="3" t="s">
         <v>66</v>
       </c>
@@ -5345,7 +5346,7 @@
         <v>159.88499999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="40" t="s">
         <v>21</v>
       </c>
@@ -5374,7 +5375,7 @@
         <v>815.9597500000001</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
@@ -5399,7 +5400,7 @@
         <v>3108.9550000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="10"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -5421,7 +5422,7 @@
       </c>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="E23" s="6" t="s">
         <v>52</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>1.2017968750000001</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -5462,14 +5463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
@@ -5477,7 +5478,7 @@
     <col min="4" max="18" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75">
       <c r="A1" s="20">
         <v>64</v>
       </c>
@@ -5512,7 +5513,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75">
       <c r="A2" s="41" t="s">
         <v>16</v>
       </c>
@@ -5527,7 +5528,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>13.604000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -5609,7 +5610,7 @@
         <v>9.5000000000000018</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
@@ -5650,7 +5651,7 @@
         <v>1.3870000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75">
       <c r="A6" s="36" t="s">
         <v>69</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>332.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75">
       <c r="A7" s="3" t="s">
         <v>71</v>
       </c>
@@ -5732,7 +5733,7 @@
         <v>141.07499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="18.75">
       <c r="A8" s="41" t="s">
         <v>17</v>
       </c>
@@ -5747,7 +5748,7 @@
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75">
       <c r="A9" s="3" t="s">
         <v>32</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>20.78125</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75">
       <c r="A10" s="33" t="s">
         <v>50</v>
       </c>
@@ -5829,7 +5830,7 @@
         <v>106.30500000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75">
       <c r="A11" s="36" t="s">
         <v>69</v>
       </c>
@@ -5870,7 +5871,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="18.75">
       <c r="A12" s="41" t="s">
         <v>58</v>
       </c>
@@ -5885,7 +5886,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -5926,7 +5927,7 @@
         <v>272.41250000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -5967,7 +5968,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75">
       <c r="A15" s="3" t="s">
         <v>59</v>
       </c>
@@ -6008,7 +6009,7 @@
         <v>108.87</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="36" t="s">
         <v>69</v>
       </c>
@@ -6049,7 +6050,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="18.75">
       <c r="A17" s="41" t="s">
         <v>18</v>
       </c>
@@ -6064,7 +6065,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
@@ -6105,7 +6106,7 @@
         <v>23.084999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75">
       <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>329.17500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="18.75">
       <c r="A20" s="41" t="s">
         <v>19</v>
       </c>
@@ -6161,7 +6162,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -6202,7 +6203,7 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="3" t="s">
         <v>59</v>
       </c>
@@ -6243,7 +6244,7 @@
         <v>108.87</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="36" t="s">
         <v>69</v>
       </c>
@@ -6284,7 +6285,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="18.75">
       <c r="A24" s="41" t="s">
         <v>20</v>
       </c>
@@ -6299,7 +6300,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
@@ -6340,7 +6341,7 @@
         <v>356.53500000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75">
       <c r="A26" s="40" t="s">
         <v>21</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>2331.0197499999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -6394,7 +6395,7 @@
         <v>3556.8549999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15.75">
       <c r="A28" s="10"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -6416,7 +6417,7 @@
       </c>
       <c r="I28" s="8"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="E29" s="6" t="s">
         <v>52</v>
       </c>
@@ -6433,7 +6434,7 @@
         <v>1.0633593750000001</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -6457,20 +6458,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="28"/>
       <c r="B1" s="29" t="s">
         <v>34</v>
@@ -6483,7 +6484,7 @@
       </c>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="28" t="s">
         <v>31</v>
       </c>
@@ -6500,7 +6501,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="28" t="s">
         <v>30</v>
       </c>
@@ -6517,7 +6518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="28" t="s">
         <v>32</v>
       </c>
@@ -6534,7 +6535,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="28" t="s">
         <v>33</v>
       </c>
@@ -6551,7 +6552,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="28" t="s">
         <v>40</v>
       </c>
@@ -6568,7 +6569,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="28" t="s">
         <v>9</v>
       </c>
@@ -6585,7 +6586,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
@@ -6602,7 +6603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="28" t="s">
         <v>27</v>
       </c>
@@ -6619,15 +6620,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="28" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="29">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="C10" s="29">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D10" s="29" t="s">
         <v>36</v>
@@ -6636,7 +6637,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="28" t="s">
         <v>29</v>
       </c>
@@ -6653,7 +6654,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="28" t="s">
         <v>24</v>
       </c>
@@ -6670,7 +6671,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="28" t="s">
         <v>53</v>
       </c>
@@ -6687,7 +6688,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="28" t="s">
         <v>62</v>
       </c>
@@ -6704,7 +6705,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="28" t="s">
         <v>49</v>
       </c>
@@ -6721,7 +6722,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="28" t="s">
         <v>57</v>
       </c>
@@ -6738,7 +6739,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="28" t="s">
         <v>72</v>
       </c>
@@ -6755,7 +6756,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="28" t="s">
         <v>73</v>
       </c>
@@ -6772,7 +6773,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="28" t="s">
         <v>74</v>
       </c>
@@ -6789,7 +6790,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="28" t="s">
         <v>75</v>
       </c>
@@ -6806,16 +6807,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="15.75">
       <c r="B21" s="31" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="32">
         <f>SUM(C2:C20)</f>
-        <v>43.12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+        <v>42.919999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75">
       <c r="A22" s="42" t="s">
         <v>45</v>
       </c>
@@ -6823,7 +6824,7 @@
       <c r="C22" s="42"/>
       <c r="D22" s="42"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="28" t="s">
         <v>73</v>
       </c>
@@ -6834,7 +6835,7 @@
         <v>1.85</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="28" t="s">
         <v>74</v>
       </c>
@@ -6845,7 +6846,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="28" t="s">
         <v>75</v>
       </c>
@@ -6856,7 +6857,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="28" t="s">
         <v>46</v>
       </c>
@@ -6867,7 +6868,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="28"/>
       <c r="B27" s="28" t="s">
         <v>47</v>
@@ -6877,7 +6878,7 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="15.75">
       <c r="A28" s="28"/>
       <c r="B28" s="28" t="s">
         <v>48</v>
